--- a/python_module/PosFeature/grade_models_score.xlsx
+++ b/python_module/PosFeature/grade_models_score.xlsx
@@ -22,20 +22,21 @@
     <sheet name="M" sheetId="13" r:id="rId13"/>
     <sheet name="T" sheetId="14" r:id="rId14"/>
     <sheet name="X" sheetId="15" r:id="rId15"/>
-    <sheet name="I" sheetId="16" r:id="rId16"/>
-    <sheet name="Nu" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="7">
+  <si>
+    <t>LogisticRegression</t>
+  </si>
+  <si>
+    <t>KNN</t>
+  </si>
   <si>
     <t>SVC</t>
-  </si>
-  <si>
-    <t>LinearSVC</t>
   </si>
   <si>
     <t>GaussianNB</t>
@@ -44,10 +45,7 @@
     <t>MultinomialNB</t>
   </si>
   <si>
-    <t>ComplementNB</t>
-  </si>
-  <si>
-    <t>BernoulliNB</t>
+    <t>RandomForest</t>
   </si>
   <si>
     <t>DecisionTreeClassifier</t>
@@ -408,7 +406,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -442,25 +440,25 @@
         <v>0</v>
       </c>
       <c r="B2">
+        <v>0.325</v>
+      </c>
+      <c r="C2">
+        <v>0.15</v>
+      </c>
+      <c r="D2">
         <v>0.4</v>
       </c>
-      <c r="C2">
-        <v>0.125</v>
-      </c>
-      <c r="D2">
+      <c r="E2">
         <v>0.375</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.225</v>
       </c>
-      <c r="F2">
-        <v>0.275</v>
-      </c>
       <c r="G2">
+        <v>0.25</v>
+      </c>
+      <c r="H2">
         <v>0.175</v>
-      </c>
-      <c r="H2">
-        <v>0.25</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -468,25 +466,25 @@
         <v>1</v>
       </c>
       <c r="B3">
+        <v>0.375</v>
+      </c>
+      <c r="C3">
+        <v>0.425</v>
+      </c>
+      <c r="D3">
         <v>0.475</v>
       </c>
-      <c r="C3">
-        <v>0.25</v>
-      </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.375</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.35</v>
       </c>
-      <c r="F3">
-        <v>0.3</v>
-      </c>
       <c r="G3">
-        <v>0.175</v>
+        <v>0.375</v>
       </c>
       <c r="H3">
-        <v>0.325</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -494,25 +492,25 @@
         <v>2</v>
       </c>
       <c r="B4">
+        <v>0.358974358974359</v>
+      </c>
+      <c r="C4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="D4">
         <v>0.3846153846153846</v>
       </c>
-      <c r="C4">
-        <v>0.1538461538461539</v>
-      </c>
-      <c r="D4">
+      <c r="E4">
         <v>0.3333333333333333</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>0.3846153846153846</v>
       </c>
-      <c r="F4">
-        <v>0.3076923076923077</v>
-      </c>
       <c r="G4">
-        <v>0.1794871794871795</v>
+        <v>0.2051282051282051</v>
       </c>
       <c r="H4">
-        <v>0.1794871794871795</v>
+        <v>0.1282051282051282</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -520,25 +518,25 @@
         <v>3</v>
       </c>
       <c r="B5">
+        <v>0.3684210526315789</v>
+      </c>
+      <c r="C5">
+        <v>0.3684210526315789</v>
+      </c>
+      <c r="D5">
         <v>0.3947368421052632</v>
-      </c>
-      <c r="C5">
-        <v>0.2368421052631579</v>
-      </c>
-      <c r="D5">
-        <v>0.4736842105263158</v>
       </c>
       <c r="E5">
         <v>0.4736842105263158</v>
       </c>
       <c r="F5">
+        <v>0.4736842105263158</v>
+      </c>
+      <c r="G5">
         <v>0.3157894736842105</v>
       </c>
-      <c r="G5">
-        <v>0.1842105263157895</v>
-      </c>
       <c r="H5">
-        <v>0.3421052631578947</v>
+        <v>0.3684210526315789</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -546,22 +544,22 @@
         <v>4</v>
       </c>
       <c r="B6">
+        <v>0.4210526315789473</v>
+      </c>
+      <c r="C6">
+        <v>0.3421052631578947</v>
+      </c>
+      <c r="D6">
         <v>0.4736842105263158</v>
       </c>
-      <c r="C6">
-        <v>0.2631578947368421</v>
-      </c>
-      <c r="D6">
+      <c r="E6">
         <v>0.4473684210526316</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>0.3684210526315789</v>
       </c>
-      <c r="F6">
-        <v>0.2894736842105263</v>
-      </c>
       <c r="G6">
-        <v>0.1842105263157895</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="H6">
         <v>0.2368421052631579</v>
@@ -575,22 +573,22 @@
         <v>0.3783783783783784</v>
       </c>
       <c r="C7">
-        <v>0.2972972972972973</v>
+        <v>0.4324324324324325</v>
       </c>
       <c r="D7">
+        <v>0.3783783783783784</v>
+      </c>
+      <c r="E7">
         <v>0.4054054054054054</v>
-      </c>
-      <c r="E7">
-        <v>0.3243243243243243</v>
       </c>
       <c r="F7">
         <v>0.3243243243243243</v>
       </c>
       <c r="G7">
-        <v>0.1891891891891892</v>
+        <v>0.4054054054054054</v>
       </c>
       <c r="H7">
-        <v>0.3783783783783784</v>
+        <v>0.4054054054054054</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -598,25 +596,25 @@
         <v>6</v>
       </c>
       <c r="B8">
+        <v>0.4722222222222222</v>
+      </c>
+      <c r="C8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="D8">
         <v>0.4444444444444444</v>
       </c>
-      <c r="C8">
-        <v>0.2777777777777778</v>
-      </c>
-      <c r="D8">
+      <c r="E8">
         <v>0.3888888888888889</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>0.1666666666666667</v>
       </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="G8">
-        <v>0.1944444444444444</v>
+        <v>0.3055555555555556</v>
       </c>
       <c r="H8">
-        <v>0.3333333333333333</v>
+        <v>0.3055555555555556</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -624,25 +622,25 @@
         <v>7</v>
       </c>
       <c r="B9">
+        <v>0.4</v>
+      </c>
+      <c r="C9">
+        <v>0.3142857142857143</v>
+      </c>
+      <c r="D9">
         <v>0.4285714285714285</v>
       </c>
-      <c r="C9">
-        <v>0.1142857142857143</v>
-      </c>
-      <c r="D9">
+      <c r="E9">
         <v>0.2857142857142857</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>0.2</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>0.2571428571428571</v>
       </c>
-      <c r="G9">
-        <v>0.1714285714285714</v>
-      </c>
       <c r="H9">
-        <v>0.2857142857142857</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -650,22 +648,22 @@
         <v>8</v>
       </c>
       <c r="B10">
+        <v>0.3235294117647059</v>
+      </c>
+      <c r="C10">
+        <v>0.3823529411764706</v>
+      </c>
+      <c r="D10">
         <v>0.4705882352941176</v>
       </c>
-      <c r="C10">
+      <c r="E10">
+        <v>0.2058823529411765</v>
+      </c>
+      <c r="F10">
         <v>0.2352941176470588</v>
       </c>
-      <c r="D10">
-        <v>0.2058823529411765</v>
-      </c>
-      <c r="E10">
-        <v>0.2352941176470588</v>
-      </c>
-      <c r="F10">
-        <v>0.2941176470588235</v>
-      </c>
       <c r="G10">
-        <v>0.1764705882352941</v>
+        <v>0.2647058823529412</v>
       </c>
       <c r="H10">
         <v>0.2058823529411765</v>
@@ -676,25 +674,51 @@
         <v>9</v>
       </c>
       <c r="B11">
+        <v>0.40625</v>
+      </c>
+      <c r="C11">
+        <v>0.40625</v>
+      </c>
+      <c r="D11">
         <v>0.4375</v>
       </c>
-      <c r="C11">
-        <v>0.1875</v>
-      </c>
-      <c r="D11">
+      <c r="E11">
         <v>0.21875</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>0.28125</v>
       </c>
-      <c r="F11">
-        <v>0.3125</v>
-      </c>
       <c r="G11">
-        <v>0.1875</v>
+        <v>0.53125</v>
       </c>
       <c r="H11">
         <v>0.34375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.3828828055550192</v>
+      </c>
+      <c r="C12">
+        <v>0.3487514070350758</v>
+      </c>
+      <c r="D12">
+        <v>0.4287518923935333</v>
+      </c>
+      <c r="E12">
+        <v>0.3509026897862037</v>
+      </c>
+      <c r="F12">
+        <v>0.3009255756411329</v>
+      </c>
+      <c r="G12">
+        <v>0.3225766852953386</v>
+      </c>
+      <c r="H12">
+        <v>0.2744061600002002</v>
       </c>
     </row>
   </sheetData>
@@ -704,7 +728,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -741,22 +765,22 @@
         <v>0.2972972972972973</v>
       </c>
       <c r="C2">
-        <v>0.1891891891891892</v>
+        <v>0.2162162162162162</v>
       </c>
       <c r="D2">
+        <v>0.2972972972972973</v>
+      </c>
+      <c r="E2">
         <v>0.3243243243243243</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.2162162162162162</v>
       </c>
-      <c r="F2">
-        <v>0.2702702702702703</v>
-      </c>
       <c r="G2">
-        <v>0.1891891891891892</v>
+        <v>0.2162162162162162</v>
       </c>
       <c r="H2">
-        <v>0.2162162162162162</v>
+        <v>0.2432432432432433</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -767,22 +791,22 @@
         <v>0.3513513513513514</v>
       </c>
       <c r="C3">
+        <v>0.2432432432432433</v>
+      </c>
+      <c r="D3">
         <v>0.3513513513513514</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.2702702702702703</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.3243243243243243</v>
       </c>
-      <c r="F3">
-        <v>0.3513513513513514</v>
-      </c>
       <c r="G3">
-        <v>0.2432432432432433</v>
+        <v>0.4054054054054054</v>
       </c>
       <c r="H3">
-        <v>0.3513513513513514</v>
+        <v>0.2972972972972973</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -790,25 +814,25 @@
         <v>2</v>
       </c>
       <c r="B4">
+        <v>0.2702702702702703</v>
+      </c>
+      <c r="C4">
+        <v>0.3513513513513514</v>
+      </c>
+      <c r="D4">
         <v>0.2432432432432433</v>
       </c>
-      <c r="C4">
+      <c r="E4">
+        <v>0.2702702702702703</v>
+      </c>
+      <c r="F4">
         <v>0.2972972972972973</v>
       </c>
-      <c r="D4">
-        <v>0.2702702702702703</v>
-      </c>
-      <c r="E4">
+      <c r="G4">
         <v>0.2972972972972973</v>
       </c>
-      <c r="F4">
-        <v>0.2162162162162162</v>
-      </c>
-      <c r="G4">
-        <v>0.1351351351351351</v>
-      </c>
       <c r="H4">
-        <v>0.1891891891891892</v>
+        <v>0.1081081081081081</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -816,25 +840,25 @@
         <v>3</v>
       </c>
       <c r="B5">
+        <v>0.2571428571428571</v>
+      </c>
+      <c r="C5">
+        <v>0.2571428571428571</v>
+      </c>
+      <c r="D5">
         <v>0.2857142857142857</v>
       </c>
-      <c r="C5">
+      <c r="E5">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="F5">
+        <v>0.3142857142857143</v>
+      </c>
+      <c r="G5">
         <v>0.2285714285714286</v>
       </c>
-      <c r="D5">
-        <v>0.1428571428571428</v>
-      </c>
-      <c r="E5">
-        <v>0.3142857142857143</v>
-      </c>
-      <c r="F5">
-        <v>0.2</v>
-      </c>
-      <c r="G5">
-        <v>0.1428571428571428</v>
-      </c>
       <c r="H5">
-        <v>0.3714285714285714</v>
+        <v>0.2571428571428571</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -842,25 +866,25 @@
         <v>4</v>
       </c>
       <c r="B6">
+        <v>0.3529411764705883</v>
+      </c>
+      <c r="C6">
+        <v>0.1176470588235294</v>
+      </c>
+      <c r="D6">
         <v>0.4411764705882353</v>
       </c>
-      <c r="C6">
+      <c r="E6">
+        <v>0.3235294117647059</v>
+      </c>
+      <c r="F6">
+        <v>0.2647058823529412</v>
+      </c>
+      <c r="G6">
+        <v>0.2647058823529412</v>
+      </c>
+      <c r="H6">
         <v>0.2941176470588235</v>
-      </c>
-      <c r="D6">
-        <v>0.3235294117647059</v>
-      </c>
-      <c r="E6">
-        <v>0.2647058823529412</v>
-      </c>
-      <c r="F6">
-        <v>0.3529411764705883</v>
-      </c>
-      <c r="G6">
-        <v>0.2352941176470588</v>
-      </c>
-      <c r="H6">
-        <v>0.2058823529411765</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -868,25 +892,25 @@
         <v>5</v>
       </c>
       <c r="B7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="C7">
+        <v>0.303030303030303</v>
+      </c>
+      <c r="D7">
         <v>0.3636363636363636</v>
-      </c>
-      <c r="C7">
-        <v>0.2424242424242424</v>
-      </c>
-      <c r="D7">
-        <v>0.3333333333333333</v>
       </c>
       <c r="E7">
         <v>0.3333333333333333</v>
       </c>
       <c r="F7">
-        <v>0.3636363636363636</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.2121212121212121</v>
+        <v>0.2424242424242424</v>
       </c>
       <c r="H7">
-        <v>0.3636363636363636</v>
+        <v>0.3939393939393939</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -894,22 +918,22 @@
         <v>6</v>
       </c>
       <c r="B8">
+        <v>0.34375</v>
+      </c>
+      <c r="C8">
+        <v>0.21875</v>
+      </c>
+      <c r="D8">
         <v>0.375</v>
       </c>
-      <c r="C8">
-        <v>0.375</v>
-      </c>
-      <c r="D8">
+      <c r="E8">
         <v>0.3125</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>0.28125</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>0.34375</v>
-      </c>
-      <c r="G8">
-        <v>0.28125</v>
       </c>
       <c r="H8">
         <v>0.3125</v>
@@ -920,22 +944,22 @@
         <v>7</v>
       </c>
       <c r="B9">
+        <v>0.375</v>
+      </c>
+      <c r="C9">
+        <v>0.28125</v>
+      </c>
+      <c r="D9">
         <v>0.34375</v>
       </c>
-      <c r="C9">
-        <v>0.40625</v>
-      </c>
-      <c r="D9">
+      <c r="E9">
         <v>0.15625</v>
-      </c>
-      <c r="E9">
-        <v>0.28125</v>
       </c>
       <c r="F9">
         <v>0.28125</v>
       </c>
       <c r="G9">
-        <v>0.1875</v>
+        <v>0.21875</v>
       </c>
       <c r="H9">
         <v>0.3125</v>
@@ -946,25 +970,25 @@
         <v>8</v>
       </c>
       <c r="B10">
+        <v>0.2903225806451613</v>
+      </c>
+      <c r="C10">
+        <v>0.2903225806451613</v>
+      </c>
+      <c r="D10">
         <v>0.2580645161290323</v>
       </c>
-      <c r="C10">
+      <c r="E10">
+        <v>0.1935483870967742</v>
+      </c>
+      <c r="F10">
+        <v>0.2258064516129032</v>
+      </c>
+      <c r="G10">
+        <v>0.3225806451612903</v>
+      </c>
+      <c r="H10">
         <v>0.2580645161290323</v>
-      </c>
-      <c r="D10">
-        <v>0.1935483870967742</v>
-      </c>
-      <c r="E10">
-        <v>0.2258064516129032</v>
-      </c>
-      <c r="F10">
-        <v>0.2580645161290323</v>
-      </c>
-      <c r="G10">
-        <v>0.2258064516129032</v>
-      </c>
-      <c r="H10">
-        <v>0.1935483870967742</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -972,25 +996,51 @@
         <v>9</v>
       </c>
       <c r="B11">
+        <v>0.4814814814814815</v>
+      </c>
+      <c r="C11">
+        <v>0.2592592592592592</v>
+      </c>
+      <c r="D11">
         <v>0.5555555555555556</v>
       </c>
-      <c r="C11">
-        <v>0.4814814814814815</v>
-      </c>
-      <c r="D11">
+      <c r="E11">
         <v>0.2222222222222222</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>0.3333333333333333</v>
       </c>
-      <c r="F11">
-        <v>0.3703703703703703</v>
-      </c>
       <c r="G11">
-        <v>0.2222222222222222</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H11">
-        <v>0.2962962962962963</v>
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.335289034799234</v>
+      </c>
+      <c r="C12">
+        <v>0.2538212869711921</v>
+      </c>
+      <c r="D12">
+        <v>0.3514789083515364</v>
+      </c>
+      <c r="E12">
+        <v>0.2549105362139043</v>
+      </c>
+      <c r="F12">
+        <v>0.2871802552756063</v>
+      </c>
+      <c r="G12">
+        <v>0.2873034450762155</v>
+      </c>
+      <c r="H12">
+        <v>0.2810246396252088</v>
       </c>
     </row>
   </sheetData>
@@ -1000,7 +1050,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1037,22 +1087,22 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="C2">
-        <v>0.2564102564102564</v>
+        <v>0.282051282051282</v>
       </c>
       <c r="D2">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E2">
         <v>0.3076923076923077</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.282051282051282</v>
-      </c>
-      <c r="F2">
-        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
         <v>0.1538461538461539</v>
       </c>
       <c r="H2">
-        <v>0.2051282051282051</v>
+        <v>0.1794871794871795</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1060,22 +1110,22 @@
         <v>1</v>
       </c>
       <c r="B3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="C3">
         <v>0.3846153846153846</v>
       </c>
-      <c r="C3">
+      <c r="D3">
+        <v>0.3846153846153846</v>
+      </c>
+      <c r="E3">
+        <v>0.2307692307692308</v>
+      </c>
+      <c r="F3">
+        <v>0.3076923076923077</v>
+      </c>
+      <c r="G3">
         <v>0.3333333333333333</v>
-      </c>
-      <c r="D3">
-        <v>0.2307692307692308</v>
-      </c>
-      <c r="E3">
-        <v>0.3076923076923077</v>
-      </c>
-      <c r="F3">
-        <v>0.282051282051282</v>
-      </c>
-      <c r="G3">
-        <v>0.1538461538461539</v>
       </c>
       <c r="H3">
         <v>0.3846153846153846</v>
@@ -1086,25 +1136,25 @@
         <v>2</v>
       </c>
       <c r="B4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="C4">
+        <v>0.2307692307692308</v>
+      </c>
+      <c r="D4">
         <v>0.3846153846153846</v>
       </c>
-      <c r="C4">
-        <v>0.3076923076923077</v>
-      </c>
-      <c r="D4">
+      <c r="E4">
         <v>0.3333333333333333</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>0.3846153846153846</v>
       </c>
-      <c r="F4">
-        <v>0.2564102564102564</v>
-      </c>
       <c r="G4">
-        <v>0.1538461538461539</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="H4">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1112,25 +1162,25 @@
         <v>3</v>
       </c>
       <c r="B5">
+        <v>0.3684210526315789</v>
+      </c>
+      <c r="C5">
+        <v>0.2894736842105263</v>
+      </c>
+      <c r="D5">
         <v>0.3947368421052632</v>
       </c>
-      <c r="C5">
-        <v>0.3684210526315789</v>
-      </c>
-      <c r="D5">
+      <c r="E5">
         <v>0.131578947368421</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0.3421052631578947</v>
       </c>
-      <c r="F5">
-        <v>0.2894736842105263</v>
-      </c>
       <c r="G5">
-        <v>0.1578947368421053</v>
+        <v>0.1842105263157895</v>
       </c>
       <c r="H5">
-        <v>0.1578947368421053</v>
+        <v>0.1842105263157895</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1138,25 +1188,25 @@
         <v>4</v>
       </c>
       <c r="B6">
+        <v>0.4324324324324325</v>
+      </c>
+      <c r="C6">
+        <v>0.2972972972972973</v>
+      </c>
+      <c r="D6">
         <v>0.4054054054054054</v>
       </c>
-      <c r="C6">
-        <v>0.4054054054054054</v>
-      </c>
-      <c r="D6">
+      <c r="E6">
         <v>0.1891891891891892</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>0.2702702702702703</v>
       </c>
-      <c r="F6">
-        <v>0.2432432432432433</v>
-      </c>
       <c r="G6">
-        <v>0.1621621621621622</v>
+        <v>0.1081081081081081</v>
       </c>
       <c r="H6">
-        <v>0.1081081081081081</v>
+        <v>0.1351351351351351</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1164,25 +1214,25 @@
         <v>5</v>
       </c>
       <c r="B7">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="C7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="D7">
         <v>0.3611111111111111</v>
       </c>
-      <c r="C7">
-        <v>0.4444444444444444</v>
-      </c>
-      <c r="D7">
+      <c r="E7">
         <v>0.2777777777777778</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.3888888888888889</v>
       </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="G7">
-        <v>0.1666666666666667</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="H7">
-        <v>0.2777777777777778</v>
+        <v>0.2222222222222222</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1193,22 +1243,22 @@
         <v>0.3714285714285714</v>
       </c>
       <c r="C8">
+        <v>0.3714285714285714</v>
+      </c>
+      <c r="D8">
+        <v>0.3714285714285714</v>
+      </c>
+      <c r="E8">
+        <v>0.3142857142857143</v>
+      </c>
+      <c r="F8">
         <v>0.2857142857142857</v>
       </c>
-      <c r="D8">
-        <v>0.3142857142857143</v>
-      </c>
-      <c r="E8">
+      <c r="G8">
+        <v>0.2571428571428571</v>
+      </c>
+      <c r="H8">
         <v>0.2857142857142857</v>
-      </c>
-      <c r="F8">
-        <v>0.2571428571428571</v>
-      </c>
-      <c r="G8">
-        <v>0.1428571428571428</v>
-      </c>
-      <c r="H8">
-        <v>0.2571428571428571</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1216,25 +1266,25 @@
         <v>7</v>
       </c>
       <c r="B9">
+        <v>0.3714285714285714</v>
+      </c>
+      <c r="C9">
+        <v>0.2285714285714286</v>
+      </c>
+      <c r="D9">
         <v>0.3142857142857143</v>
       </c>
-      <c r="C9">
+      <c r="E9">
+        <v>0.1142857142857143</v>
+      </c>
+      <c r="F9">
+        <v>0.3142857142857143</v>
+      </c>
+      <c r="G9">
         <v>0.3714285714285714</v>
       </c>
-      <c r="D9">
-        <v>0.1142857142857143</v>
-      </c>
-      <c r="E9">
-        <v>0.3142857142857143</v>
-      </c>
-      <c r="F9">
-        <v>0.2571428571428571</v>
-      </c>
-      <c r="G9">
+      <c r="H9">
         <v>0.1714285714285714</v>
-      </c>
-      <c r="H9">
-        <v>0.2571428571428571</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1242,22 +1292,22 @@
         <v>8</v>
       </c>
       <c r="B10">
+        <v>0.25</v>
+      </c>
+      <c r="C10">
+        <v>0.25</v>
+      </c>
+      <c r="D10">
         <v>0.1875</v>
       </c>
-      <c r="C10">
-        <v>0.3125</v>
-      </c>
-      <c r="D10">
+      <c r="E10">
         <v>0.125</v>
-      </c>
-      <c r="E10">
-        <v>0.28125</v>
       </c>
       <c r="F10">
         <v>0.28125</v>
       </c>
       <c r="G10">
-        <v>0.15625</v>
+        <v>0.3125</v>
       </c>
       <c r="H10">
         <v>0.34375</v>
@@ -1268,25 +1318,51 @@
         <v>9</v>
       </c>
       <c r="B11">
+        <v>0.3793103448275862</v>
+      </c>
+      <c r="C11">
+        <v>0.2413793103448276</v>
+      </c>
+      <c r="D11">
         <v>0.4482758620689655</v>
       </c>
-      <c r="C11">
-        <v>0.4137931034482759</v>
-      </c>
-      <c r="D11">
+      <c r="E11">
         <v>0.103448275862069</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>0.3793103448275862</v>
       </c>
-      <c r="F11">
-        <v>0.2758620689655172</v>
-      </c>
       <c r="G11">
-        <v>0.1724137931034483</v>
+        <v>0.1379310344827586</v>
       </c>
       <c r="H11">
-        <v>0.3793103448275862</v>
+        <v>0.3448275862068966</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.3589687639415408</v>
+      </c>
+      <c r="C12">
+        <v>0.2908919522621882</v>
+      </c>
+      <c r="D12">
+        <v>0.3585307608969134</v>
+      </c>
+      <c r="E12">
+        <v>0.2127360490563757</v>
+      </c>
+      <c r="F12">
+        <v>0.3236183741503614</v>
+      </c>
+      <c r="G12">
+        <v>0.2311492037649025</v>
+      </c>
+      <c r="H12">
+        <v>0.2584724224458798</v>
       </c>
     </row>
   </sheetData>
@@ -1296,7 +1372,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1330,25 +1406,25 @@
         <v>0</v>
       </c>
       <c r="B2">
+        <v>0.275</v>
+      </c>
+      <c r="C2">
+        <v>0.325</v>
+      </c>
+      <c r="D2">
         <v>0.2</v>
       </c>
-      <c r="C2">
-        <v>0.25</v>
-      </c>
-      <c r="D2">
+      <c r="E2">
         <v>0.175</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.2</v>
       </c>
-      <c r="F2">
-        <v>0.275</v>
-      </c>
       <c r="G2">
-        <v>0.175</v>
+        <v>0.325</v>
       </c>
       <c r="H2">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1356,25 +1432,25 @@
         <v>1</v>
       </c>
       <c r="B3">
+        <v>0.3</v>
+      </c>
+      <c r="C3">
+        <v>0.325</v>
+      </c>
+      <c r="D3">
         <v>0.35</v>
       </c>
-      <c r="C3">
+      <c r="E3">
+        <v>0.3</v>
+      </c>
+      <c r="F3">
         <v>0.275</v>
       </c>
-      <c r="D3">
-        <v>0.3</v>
-      </c>
-      <c r="E3">
+      <c r="G3">
         <v>0.275</v>
       </c>
-      <c r="F3">
-        <v>0.3</v>
-      </c>
-      <c r="G3">
-        <v>0.175</v>
-      </c>
       <c r="H3">
-        <v>0.35</v>
+        <v>0.325</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1382,25 +1458,25 @@
         <v>2</v>
       </c>
       <c r="B4">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="C4">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="D4">
         <v>0.3333333333333333</v>
       </c>
-      <c r="C4">
-        <v>0.2051282051282051</v>
-      </c>
-      <c r="D4">
+      <c r="E4">
         <v>0.282051282051282</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>0.3076923076923077</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>0.282051282051282</v>
       </c>
-      <c r="G4">
-        <v>0.1794871794871795</v>
-      </c>
       <c r="H4">
-        <v>0.2564102564102564</v>
+        <v>0.2307692307692308</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1408,25 +1484,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3684210526315789</v>
+        <v>0.3421052631578947</v>
       </c>
       <c r="C5">
-        <v>0.3421052631578947</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="D5">
         <v>0.3684210526315789</v>
       </c>
       <c r="E5">
+        <v>0.3684210526315789</v>
+      </c>
+      <c r="F5">
         <v>0.3947368421052632</v>
-      </c>
-      <c r="F5">
-        <v>0.3157894736842105</v>
       </c>
       <c r="G5">
         <v>0.1842105263157895</v>
       </c>
       <c r="H5">
-        <v>0.2105263157894737</v>
+        <v>0.1842105263157895</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1434,25 +1510,25 @@
         <v>4</v>
       </c>
       <c r="B6">
+        <v>0.3947368421052632</v>
+      </c>
+      <c r="C6">
         <v>0.3421052631578947</v>
       </c>
-      <c r="C6">
+      <c r="D6">
+        <v>0.3421052631578947</v>
+      </c>
+      <c r="E6">
+        <v>0.2368421052631579</v>
+      </c>
+      <c r="F6">
+        <v>0.3684210526315789</v>
+      </c>
+      <c r="G6">
+        <v>0.3684210526315789</v>
+      </c>
+      <c r="H6">
         <v>0.2894736842105263</v>
-      </c>
-      <c r="D6">
-        <v>0.2368421052631579</v>
-      </c>
-      <c r="E6">
-        <v>0.3684210526315789</v>
-      </c>
-      <c r="F6">
-        <v>0.2631578947368421</v>
-      </c>
-      <c r="G6">
-        <v>0.1578947368421053</v>
-      </c>
-      <c r="H6">
-        <v>0.2631578947368421</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1460,25 +1536,25 @@
         <v>5</v>
       </c>
       <c r="B7">
+        <v>0.4054054054054054</v>
+      </c>
+      <c r="C7">
         <v>0.3513513513513514</v>
       </c>
-      <c r="C7">
+      <c r="D7">
+        <v>0.3513513513513514</v>
+      </c>
+      <c r="E7">
+        <v>0.2972972972972973</v>
+      </c>
+      <c r="F7">
+        <v>0.4324324324324325</v>
+      </c>
+      <c r="G7">
         <v>0.4054054054054054</v>
       </c>
-      <c r="D7">
-        <v>0.2972972972972973</v>
-      </c>
-      <c r="E7">
-        <v>0.4324324324324325</v>
-      </c>
-      <c r="F7">
-        <v>0.3243243243243243</v>
-      </c>
-      <c r="G7">
-        <v>0.1891891891891892</v>
-      </c>
       <c r="H7">
-        <v>0.2162162162162162</v>
+        <v>0.2432432432432433</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1486,25 +1562,25 @@
         <v>6</v>
       </c>
       <c r="B8">
+        <v>0.3142857142857143</v>
+      </c>
+      <c r="C8">
+        <v>0.3428571428571429</v>
+      </c>
+      <c r="D8">
         <v>0.2857142857142857</v>
-      </c>
-      <c r="C8">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="D8">
-        <v>0.3428571428571429</v>
       </c>
       <c r="E8">
         <v>0.3428571428571429</v>
       </c>
       <c r="F8">
-        <v>0.2857142857142857</v>
+        <v>0.3428571428571429</v>
       </c>
       <c r="G8">
-        <v>0.2</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H8">
-        <v>0.2857142857142857</v>
+        <v>0.2285714285714286</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1512,10 +1588,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3428571428571429</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C9">
-        <v>0.3142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="D9">
         <v>0.3428571428571429</v>
@@ -1524,13 +1600,13 @@
         <v>0.3428571428571429</v>
       </c>
       <c r="F9">
-        <v>0.2285714285714286</v>
+        <v>0.3428571428571429</v>
       </c>
       <c r="G9">
-        <v>0.1714285714285714</v>
+        <v>0.4571428571428571</v>
       </c>
       <c r="H9">
-        <v>0.4</v>
+        <v>0.3714285714285714</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1541,22 +1617,22 @@
         <v>0.2647058823529412</v>
       </c>
       <c r="C10">
+        <v>0.2058823529411765</v>
+      </c>
+      <c r="D10">
         <v>0.2647058823529412</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>0.2352941176470588</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>0.2647058823529412</v>
       </c>
-      <c r="F10">
+      <c r="G10">
+        <v>0.2941176470588235</v>
+      </c>
+      <c r="H10">
         <v>0.2058823529411765</v>
-      </c>
-      <c r="G10">
-        <v>0.1764705882352941</v>
-      </c>
-      <c r="H10">
-        <v>0.2352941176470588</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1564,25 +1640,51 @@
         <v>9</v>
       </c>
       <c r="B11">
+        <v>0.4193548387096774</v>
+      </c>
+      <c r="C11">
+        <v>0.3225806451612903</v>
+      </c>
+      <c r="D11">
         <v>0.5483870967741935</v>
       </c>
-      <c r="C11">
-        <v>0.3548387096774194</v>
-      </c>
-      <c r="D11">
+      <c r="E11">
         <v>0.2258064516129032</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>0.4193548387096774</v>
       </c>
-      <c r="F11">
-        <v>0.2580645161290323</v>
-      </c>
       <c r="G11">
-        <v>0.1935483870967742</v>
+        <v>0.3870967741935484</v>
       </c>
       <c r="H11">
-        <v>0.2258064516129032</v>
+        <v>0.2903225806451613</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.3426216656639607</v>
+      </c>
+      <c r="C12">
+        <v>0.3045700217971266</v>
+      </c>
+      <c r="D12">
+        <v>0.3386875408172721</v>
+      </c>
+      <c r="E12">
+        <v>0.2806426592217564</v>
+      </c>
+      <c r="F12">
+        <v>0.3348057641638487</v>
+      </c>
+      <c r="G12">
+        <v>0.3407016973370714</v>
+      </c>
+      <c r="H12">
+        <v>0.2718901618125128</v>
       </c>
     </row>
   </sheetData>
@@ -1592,7 +1694,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1626,25 +1728,25 @@
         <v>0</v>
       </c>
       <c r="B2">
+        <v>0.3</v>
+      </c>
+      <c r="C2">
         <v>0.275</v>
       </c>
-      <c r="C2">
-        <v>0.225</v>
-      </c>
       <c r="D2">
+        <v>0.275</v>
+      </c>
+      <c r="E2">
         <v>0.2</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.275</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0.25</v>
       </c>
-      <c r="G2">
-        <v>0.125</v>
-      </c>
       <c r="H2">
-        <v>0.3</v>
+        <v>0.325</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1652,25 +1754,25 @@
         <v>1</v>
       </c>
       <c r="B3">
+        <v>0.35</v>
+      </c>
+      <c r="C3">
+        <v>0.275</v>
+      </c>
+      <c r="D3">
         <v>0.325</v>
       </c>
-      <c r="C3">
-        <v>0.4</v>
-      </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.1</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.325</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.275</v>
       </c>
-      <c r="G3">
-        <v>0.125</v>
-      </c>
       <c r="H3">
-        <v>0.2</v>
+        <v>0.175</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1678,25 +1780,25 @@
         <v>2</v>
       </c>
       <c r="B4">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="C4">
         <v>0.3684210526315789</v>
       </c>
-      <c r="C4">
-        <v>0.2631578947368421</v>
-      </c>
       <c r="D4">
+        <v>0.3684210526315789</v>
+      </c>
+      <c r="E4">
         <v>0.2894736842105263</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>0.3157894736842105</v>
       </c>
-      <c r="F4">
-        <v>0.2631578947368421</v>
-      </c>
       <c r="G4">
-        <v>0.131578947368421</v>
+        <v>0.2894736842105263</v>
       </c>
       <c r="H4">
-        <v>0.1578947368421053</v>
+        <v>0.1842105263157895</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1707,22 +1809,22 @@
         <v>0.3783783783783784</v>
       </c>
       <c r="C5">
+        <v>0.3513513513513514</v>
+      </c>
+      <c r="D5">
+        <v>0.3783783783783784</v>
+      </c>
+      <c r="E5">
+        <v>0.1081081081081081</v>
+      </c>
+      <c r="F5">
+        <v>0.4324324324324325</v>
+      </c>
+      <c r="G5">
         <v>0.2432432432432433</v>
       </c>
-      <c r="D5">
-        <v>0.1081081081081081</v>
-      </c>
-      <c r="E5">
-        <v>0.4324324324324325</v>
-      </c>
-      <c r="F5">
-        <v>0.2972972972972973</v>
-      </c>
-      <c r="G5">
-        <v>0.1351351351351351</v>
-      </c>
       <c r="H5">
-        <v>0.3243243243243243</v>
+        <v>0.2702702702702703</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1730,22 +1832,22 @@
         <v>4</v>
       </c>
       <c r="B6">
+        <v>0.4324324324324325</v>
+      </c>
+      <c r="C6">
+        <v>0.2162162162162162</v>
+      </c>
+      <c r="D6">
         <v>0.3513513513513514</v>
       </c>
-      <c r="C6">
-        <v>0.4054054054054054</v>
-      </c>
-      <c r="D6">
+      <c r="E6">
         <v>0.2432432432432433</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>0.2702702702702703</v>
       </c>
-      <c r="F6">
-        <v>0.2972972972972973</v>
-      </c>
       <c r="G6">
-        <v>0.1351351351351351</v>
+        <v>0.2162162162162162</v>
       </c>
       <c r="H6">
         <v>0.1351351351351351</v>
@@ -1756,22 +1858,22 @@
         <v>5</v>
       </c>
       <c r="B7">
+        <v>0.4</v>
+      </c>
+      <c r="C7">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="D7">
         <v>0.3714285714285714</v>
       </c>
-      <c r="C7">
-        <v>0.3142857142857143</v>
-      </c>
-      <c r="D7">
+      <c r="E7">
         <v>0.2</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.4</v>
       </c>
-      <c r="F7">
-        <v>0.3142857142857143</v>
-      </c>
       <c r="G7">
-        <v>0.1428571428571428</v>
+        <v>0.2571428571428571</v>
       </c>
       <c r="H7">
         <v>0.2571428571428571</v>
@@ -1782,25 +1884,25 @@
         <v>6</v>
       </c>
       <c r="B8">
+        <v>0.3714285714285714</v>
+      </c>
+      <c r="C8">
+        <v>0.2</v>
+      </c>
+      <c r="D8">
         <v>0.3142857142857143</v>
-      </c>
-      <c r="C8">
-        <v>0.3714285714285714</v>
-      </c>
-      <c r="D8">
-        <v>0.2</v>
       </c>
       <c r="E8">
         <v>0.2</v>
       </c>
       <c r="F8">
-        <v>0.2857142857142857</v>
+        <v>0.2</v>
       </c>
       <c r="G8">
-        <v>0.1428571428571428</v>
+        <v>0.3142857142857143</v>
       </c>
       <c r="H8">
-        <v>0.2857142857142857</v>
+        <v>0.2285714285714286</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1808,25 +1910,25 @@
         <v>7</v>
       </c>
       <c r="B9">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="C9">
+        <v>0.2285714285714286</v>
+      </c>
+      <c r="D9">
         <v>0.3142857142857143</v>
       </c>
-      <c r="C9">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="D9">
+      <c r="E9">
         <v>0.1714285714285714</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>0.3142857142857143</v>
       </c>
-      <c r="F9">
-        <v>0.2857142857142857</v>
-      </c>
       <c r="G9">
-        <v>0.1428571428571428</v>
+        <v>0.3428571428571429</v>
       </c>
       <c r="H9">
-        <v>0.2571428571428571</v>
+        <v>0.3142857142857143</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1834,22 +1936,22 @@
         <v>8</v>
       </c>
       <c r="B10">
+        <v>0.3529411764705883</v>
+      </c>
+      <c r="C10">
+        <v>0.2647058823529412</v>
+      </c>
+      <c r="D10">
         <v>0.2941176470588235</v>
       </c>
-      <c r="C10">
-        <v>0.3529411764705883</v>
-      </c>
-      <c r="D10">
+      <c r="E10">
         <v>0.1470588235294118</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>0.2058823529411765</v>
       </c>
-      <c r="F10">
-        <v>0.2647058823529412</v>
-      </c>
       <c r="G10">
-        <v>0.1764705882352941</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="H10">
         <v>0.2058823529411765</v>
@@ -1860,25 +1962,51 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.28125</v>
+        <v>0.3125</v>
       </c>
       <c r="C11">
         <v>0.28125</v>
       </c>
       <c r="D11">
+        <v>0.28125</v>
+      </c>
+      <c r="E11">
         <v>0.15625</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>0.375</v>
       </c>
-      <c r="F11">
+      <c r="G11">
+        <v>0.21875</v>
+      </c>
+      <c r="H11">
         <v>0.28125</v>
       </c>
-      <c r="G11">
-        <v>0.15625</v>
-      </c>
-      <c r="H11">
-        <v>0.3125</v>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.3499184318108467</v>
+      </c>
+      <c r="C12">
+        <v>0.2746230216837802</v>
+      </c>
+      <c r="D12">
+        <v>0.3273518429420132</v>
+      </c>
+      <c r="E12">
+        <v>0.1815562430519861</v>
+      </c>
+      <c r="F12">
+        <v>0.3113660243613804</v>
+      </c>
+      <c r="G12">
+        <v>0.2642262975602759</v>
+      </c>
+      <c r="H12">
+        <v>0.2376748284662372</v>
       </c>
     </row>
   </sheetData>
@@ -1888,7 +2016,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1922,19 +2050,19 @@
         <v>0</v>
       </c>
       <c r="B2">
+        <v>0.3235294117647059</v>
+      </c>
+      <c r="C2">
+        <v>0.08823529411764706</v>
+      </c>
+      <c r="D2">
         <v>0.4117647058823529</v>
       </c>
-      <c r="C2">
-        <v>0.2352941176470588</v>
-      </c>
-      <c r="D2">
+      <c r="E2">
         <v>0.1764705882352941</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.3235294117647059</v>
-      </c>
-      <c r="F2">
-        <v>0.2352941176470588</v>
       </c>
       <c r="G2">
         <v>0.1470588235294118</v>
@@ -1954,19 +2082,19 @@
         <v>0.3125</v>
       </c>
       <c r="D3">
+        <v>0.3125</v>
+      </c>
+      <c r="E3">
         <v>0.25</v>
-      </c>
-      <c r="E3">
-        <v>0.3125</v>
       </c>
       <c r="F3">
         <v>0.3125</v>
       </c>
       <c r="G3">
-        <v>0.125</v>
+        <v>0.375</v>
       </c>
       <c r="H3">
-        <v>0.3125</v>
+        <v>0.28125</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1977,22 +2105,22 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="C4">
-        <v>0.3</v>
+        <v>0.2333333333333333</v>
       </c>
       <c r="D4">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="E4">
         <v>0.1333333333333333</v>
-      </c>
-      <c r="E4">
-        <v>0.2666666666666667</v>
       </c>
       <c r="F4">
         <v>0.2666666666666667</v>
       </c>
       <c r="G4">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="H4">
-        <v>0.2</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2000,25 +2128,25 @@
         <v>3</v>
       </c>
       <c r="B5">
+        <v>0.3</v>
+      </c>
+      <c r="C5">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="D5">
         <v>0.3333333333333333</v>
       </c>
-      <c r="C5">
-        <v>0.3</v>
-      </c>
-      <c r="D5">
+      <c r="E5">
         <v>0.1666666666666667</v>
-      </c>
-      <c r="E5">
-        <v>0.3</v>
       </c>
       <c r="F5">
         <v>0.3</v>
       </c>
       <c r="G5">
+        <v>0.2333333333333333</v>
+      </c>
+      <c r="H5">
         <v>0.2</v>
-      </c>
-      <c r="H5">
-        <v>0.2333333333333333</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2026,25 +2154,25 @@
         <v>4</v>
       </c>
       <c r="B6">
+        <v>0.3214285714285715</v>
+      </c>
+      <c r="C6">
+        <v>0.2142857142857143</v>
+      </c>
+      <c r="D6">
         <v>0.25</v>
       </c>
-      <c r="C6">
+      <c r="E6">
+        <v>0.2142857142857143</v>
+      </c>
+      <c r="F6">
         <v>0.3214285714285715</v>
       </c>
-      <c r="D6">
-        <v>0.2142857142857143</v>
-      </c>
-      <c r="E6">
+      <c r="G6">
         <v>0.3214285714285715</v>
       </c>
-      <c r="F6">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="G6">
-        <v>0.2857142857142857</v>
-      </c>
       <c r="H6">
-        <v>0.4642857142857143</v>
+        <v>0.4285714285714285</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2052,25 +2180,25 @@
         <v>5</v>
       </c>
       <c r="B7">
+        <v>0.3846153846153846</v>
+      </c>
+      <c r="C7">
         <v>0.3461538461538461</v>
       </c>
-      <c r="C7">
-        <v>0.3846153846153846</v>
-      </c>
       <c r="D7">
+        <v>0.3461538461538461</v>
+      </c>
+      <c r="E7">
         <v>0.2307692307692308</v>
-      </c>
-      <c r="E7">
-        <v>0.3461538461538461</v>
       </c>
       <c r="F7">
         <v>0.3461538461538461</v>
       </c>
       <c r="G7">
-        <v>0.2307692307692308</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="H7">
-        <v>0.3846153846153846</v>
+        <v>0.3461538461538461</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2078,25 +2206,25 @@
         <v>6</v>
       </c>
       <c r="B8">
+        <v>0.3461538461538461</v>
+      </c>
+      <c r="C8">
+        <v>0.1923076923076923</v>
+      </c>
+      <c r="D8">
         <v>0.4230769230769231</v>
       </c>
-      <c r="C8">
-        <v>0.4230769230769231</v>
-      </c>
-      <c r="D8">
+      <c r="E8">
         <v>0.2307692307692308</v>
-      </c>
-      <c r="E8">
-        <v>0.3461538461538461</v>
       </c>
       <c r="F8">
         <v>0.3461538461538461</v>
       </c>
       <c r="G8">
-        <v>0.07692307692307693</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="H8">
-        <v>0.1923076923076923</v>
+        <v>0.2692307692307692</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2104,22 +2232,22 @@
         <v>7</v>
       </c>
       <c r="B9">
+        <v>0.32</v>
+      </c>
+      <c r="C9">
         <v>0.28</v>
       </c>
-      <c r="C9">
-        <v>0.32</v>
-      </c>
       <c r="D9">
+        <v>0.28</v>
+      </c>
+      <c r="E9">
         <v>0.12</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>0.28</v>
       </c>
-      <c r="F9">
-        <v>0.24</v>
-      </c>
       <c r="G9">
-        <v>0.16</v>
+        <v>0.28</v>
       </c>
       <c r="H9">
         <v>0.2</v>
@@ -2130,16 +2258,16 @@
         <v>8</v>
       </c>
       <c r="B10">
+        <v>0.25</v>
+      </c>
+      <c r="C10">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="D10">
         <v>0.2083333333333333</v>
       </c>
-      <c r="C10">
-        <v>0.2083333333333333</v>
-      </c>
-      <c r="D10">
+      <c r="E10">
         <v>0.08333333333333333</v>
-      </c>
-      <c r="E10">
-        <v>0.2083333333333333</v>
       </c>
       <c r="F10">
         <v>0.2083333333333333</v>
@@ -2156,25 +2284,51 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.2173913043478261</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="C11">
-        <v>0.2173913043478261</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="D11">
         <v>0.2173913043478261</v>
       </c>
       <c r="E11">
-        <v>0.2608695652173913</v>
+        <v>0.2173913043478261</v>
       </c>
       <c r="F11">
         <v>0.2608695652173913</v>
       </c>
       <c r="G11">
-        <v>0.1739130434782609</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="H11">
         <v>0.3478260869565217</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.3085763445846566</v>
+      </c>
+      <c r="C12">
+        <v>0.2261018778748958</v>
+      </c>
+      <c r="D12">
+        <v>0.3049220112794282</v>
+      </c>
+      <c r="E12">
+        <v>0.1823019401740629</v>
+      </c>
+      <c r="F12">
+        <v>0.2965635240718361</v>
+      </c>
+      <c r="G12">
+        <v>0.2776664652483067</v>
+      </c>
+      <c r="H12">
+        <v>0.2920581150520409</v>
       </c>
     </row>
   </sheetData>
@@ -2184,7 +2338,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2221,19 +2375,19 @@
         <v>0.3</v>
       </c>
       <c r="C2">
-        <v>0.2666666666666667</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="D2">
+        <v>0.3</v>
+      </c>
+      <c r="E2">
         <v>0.1333333333333333</v>
-      </c>
-      <c r="E2">
-        <v>0.2</v>
       </c>
       <c r="F2">
         <v>0.2</v>
       </c>
       <c r="G2">
-        <v>0.2333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="H2">
         <v>0.2333333333333333</v>
@@ -2247,19 +2401,19 @@
         <v>0.3</v>
       </c>
       <c r="C3">
-        <v>0.3666666666666666</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="D3">
+        <v>0.3</v>
+      </c>
+      <c r="E3">
         <v>0.2666666666666667</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.2</v>
       </c>
-      <c r="F3">
-        <v>0.2333333333333333</v>
-      </c>
       <c r="G3">
-        <v>0.2666666666666667</v>
+        <v>0.3</v>
       </c>
       <c r="H3">
         <v>0.3</v>
@@ -2273,7 +2427,7 @@
         <v>0.2142857142857143</v>
       </c>
       <c r="C4">
-        <v>0.2857142857142857</v>
+        <v>0.1071428571428571</v>
       </c>
       <c r="D4">
         <v>0.2142857142857143</v>
@@ -2282,10 +2436,10 @@
         <v>0.2142857142857143</v>
       </c>
       <c r="F4">
+        <v>0.2142857142857143</v>
+      </c>
+      <c r="G4">
         <v>0.25</v>
-      </c>
-      <c r="G4">
-        <v>0.2142857142857143</v>
       </c>
       <c r="H4">
         <v>0.1428571428571428</v>
@@ -2296,25 +2450,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.25</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C5">
-        <v>0.2857142857142857</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="D5">
         <v>0.25</v>
       </c>
       <c r="E5">
+        <v>0.25</v>
+      </c>
+      <c r="F5">
         <v>0.1785714285714286</v>
       </c>
-      <c r="F5">
-        <v>0.2857142857142857</v>
-      </c>
       <c r="G5">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="H5">
-        <v>0.25</v>
+        <v>0.2142857142857143</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2322,25 +2476,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.24</v>
+        <v>0.32</v>
       </c>
       <c r="C6">
         <v>0.32</v>
       </c>
       <c r="D6">
-        <v>0.28</v>
+        <v>0.24</v>
       </c>
       <c r="E6">
         <v>0.28</v>
       </c>
       <c r="F6">
-        <v>0.2</v>
+        <v>0.28</v>
       </c>
       <c r="G6">
         <v>0.32</v>
       </c>
       <c r="H6">
-        <v>0.32</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2348,22 +2502,22 @@
         <v>5</v>
       </c>
       <c r="B7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="C7">
+        <v>0.125</v>
+      </c>
+      <c r="D7">
         <v>0.2916666666666667</v>
       </c>
-      <c r="C7">
+      <c r="E7">
         <v>0.3333333333333333</v>
-      </c>
-      <c r="D7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="E7">
-        <v>0.2916666666666667</v>
       </c>
       <c r="F7">
         <v>0.2916666666666667</v>
       </c>
       <c r="G7">
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="H7">
         <v>0.2916666666666667</v>
@@ -2377,19 +2531,19 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="C8">
+        <v>0.25</v>
+      </c>
+      <c r="D8">
         <v>0.3333333333333333</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>0.25</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>0.2916666666666667</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>0.2083333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.2916666666666667</v>
       </c>
       <c r="H8">
         <v>0.25</v>
@@ -2403,22 +2557,22 @@
         <v>0.2608695652173913</v>
       </c>
       <c r="C9">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="D9">
+        <v>0.2608695652173913</v>
+      </c>
+      <c r="E9">
         <v>0.2173913043478261</v>
       </c>
-      <c r="D9">
+      <c r="F9">
+        <v>0.1739130434782609</v>
+      </c>
+      <c r="G9">
+        <v>0.1739130434782609</v>
+      </c>
+      <c r="H9">
         <v>0.2173913043478261</v>
-      </c>
-      <c r="E9">
-        <v>0.1739130434782609</v>
-      </c>
-      <c r="F9">
-        <v>0.2173913043478261</v>
-      </c>
-      <c r="G9">
-        <v>0.2608695652173913</v>
-      </c>
-      <c r="H9">
-        <v>0.2608695652173913</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2429,19 +2583,19 @@
         <v>0.1818181818181818</v>
       </c>
       <c r="C10">
+        <v>0.1363636363636364</v>
+      </c>
+      <c r="D10">
         <v>0.1818181818181818</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>0.09090909090909091</v>
-      </c>
-      <c r="E10">
-        <v>0.1818181818181818</v>
       </c>
       <c r="F10">
         <v>0.1818181818181818</v>
       </c>
       <c r="G10">
-        <v>0.1818181818181818</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="H10">
         <v>0.09090909090909091</v>
@@ -2452,13 +2606,13 @@
         <v>9</v>
       </c>
       <c r="B11">
+        <v>0.2380952380952381</v>
+      </c>
+      <c r="C11">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="D11">
         <v>0.1428571428571428</v>
-      </c>
-      <c r="C11">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="D11">
-        <v>0.1904761904761905</v>
       </c>
       <c r="E11">
         <v>0.1904761904761905</v>
@@ -2467,10 +2621,36 @@
         <v>0.1904761904761905</v>
       </c>
       <c r="G11">
-        <v>0.2380952380952381</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H11">
         <v>0.1904761904761905</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.2767449651797478</v>
+      </c>
+      <c r="C12">
+        <v>0.166117730095991</v>
+      </c>
+      <c r="D12">
+        <v>0.251483060417843</v>
+      </c>
+      <c r="E12">
+        <v>0.2226395633352155</v>
+      </c>
+      <c r="F12">
+        <v>0.2202397891963109</v>
+      </c>
+      <c r="G12">
+        <v>0.2406467156032374</v>
+      </c>
+      <c r="H12">
+        <v>0.2210919442875965</v>
       </c>
     </row>
   </sheetData>
@@ -2478,9 +2658,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2514,25 +2694,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2142857142857143</v>
+        <v>0.325</v>
       </c>
       <c r="C2">
-        <v>0.2142857142857143</v>
+        <v>0.325</v>
       </c>
       <c r="D2">
-        <v>0.1428571428571428</v>
+        <v>0.4</v>
       </c>
       <c r="E2">
-        <v>0.2142857142857143</v>
+        <v>0.5</v>
       </c>
       <c r="F2">
-        <v>0.2142857142857143</v>
+        <v>0.2</v>
       </c>
       <c r="G2">
-        <v>0.07142857142857142</v>
+        <v>0.4</v>
       </c>
       <c r="H2">
-        <v>0.2142857142857143</v>
+        <v>0.325</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2540,25 +2720,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1428571428571428</v>
+        <v>0.325</v>
       </c>
       <c r="C3">
-        <v>0.1428571428571428</v>
+        <v>0.425</v>
       </c>
       <c r="D3">
-        <v>0.1428571428571428</v>
+        <v>0.4</v>
       </c>
       <c r="E3">
-        <v>0.2857142857142857</v>
+        <v>0.325</v>
       </c>
       <c r="F3">
-        <v>0.1428571428571428</v>
+        <v>0.325</v>
       </c>
       <c r="G3">
-        <v>0.2142857142857143</v>
+        <v>0.45</v>
       </c>
       <c r="H3">
-        <v>0.3571428571428572</v>
+        <v>0.275</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2566,25 +2746,25 @@
         <v>2</v>
       </c>
       <c r="B4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="C4">
+        <v>0.2564102564102564</v>
+      </c>
+      <c r="D4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E4">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="F4">
+        <v>0.3846153846153846</v>
+      </c>
+      <c r="G4">
         <v>0.2307692307692308</v>
       </c>
-      <c r="C4">
-        <v>0.1538461538461539</v>
-      </c>
-      <c r="D4">
-        <v>0.07692307692307693</v>
-      </c>
-      <c r="E4">
-        <v>0.2307692307692308</v>
-      </c>
-      <c r="F4">
-        <v>0.2307692307692308</v>
-      </c>
-      <c r="G4">
-        <v>0.1538461538461539</v>
-      </c>
       <c r="H4">
-        <v>0.3846153846153846</v>
+        <v>0.1282051282051282</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2592,25 +2772,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1666666666666667</v>
+        <v>0.4473684210526316</v>
       </c>
       <c r="C5">
-        <v>0.1666666666666667</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="D5">
-        <v>0.25</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="E5">
-        <v>0.25</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="F5">
-        <v>0.1666666666666667</v>
+        <v>0.5526315789473685</v>
       </c>
       <c r="G5">
-        <v>0.08333333333333333</v>
+        <v>0.1842105263157895</v>
       </c>
       <c r="H5">
-        <v>0.1666666666666667</v>
+        <v>0.3421052631578947</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2618,25 +2798,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.25</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="C6">
-        <v>0.25</v>
+        <v>0.3947368421052632</v>
       </c>
       <c r="D6">
-        <v>0.125</v>
+        <v>0.4473684210526316</v>
       </c>
       <c r="E6">
-        <v>0.25</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="F6">
-        <v>0.25</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.3157894736842105</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2644,25 +2824,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.125</v>
+        <v>0.4324324324324325</v>
       </c>
       <c r="C7">
-        <v>0.125</v>
+        <v>0.4864864864864865</v>
       </c>
       <c r="D7">
-        <v>0.25</v>
+        <v>0.4324324324324325</v>
       </c>
       <c r="E7">
-        <v>0.125</v>
+        <v>0.3513513513513514</v>
       </c>
       <c r="F7">
-        <v>0.125</v>
+        <v>0.3513513513513514</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.3513513513513514</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.4054054054054054</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2670,25 +2850,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1428571428571428</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="C8">
-        <v>0.1428571428571428</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D8">
-        <v>0.1428571428571428</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="E8">
-        <v>0.2857142857142857</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="F8">
-        <v>0.2857142857142857</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="H8">
-        <v>0.1428571428571428</v>
+        <v>0.3888888888888889</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2696,25 +2876,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.2</v>
+        <v>0.3714285714285714</v>
       </c>
       <c r="C9">
-        <v>0.2</v>
+        <v>0.2571428571428571</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="E9">
-        <v>0.4</v>
+        <v>0.3428571428571429</v>
       </c>
       <c r="F9">
-        <v>0.4</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.3428571428571429</v>
       </c>
       <c r="H9">
-        <v>0.8</v>
+        <v>0.1714285714285714</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2722,25 +2902,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.25</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="C10">
-        <v>0.25</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.3823529411764706</v>
       </c>
       <c r="E10">
-        <v>0.25</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="F10">
-        <v>0.25</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="G10">
-        <v>0.25</v>
+        <v>0.4411764705882353</v>
       </c>
       <c r="H10">
-        <v>0.25</v>
+        <v>0.2058823529411765</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2748,25 +2928,51 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.3333333333333333</v>
+        <v>0.375</v>
       </c>
       <c r="C11">
-        <v>0.6666666666666666</v>
+        <v>0.28125</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.3125</v>
       </c>
       <c r="E11">
-        <v>0.6666666666666666</v>
+        <v>0.34375</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>0.34375</v>
       </c>
       <c r="G11">
-        <v>0.3333333333333333</v>
+        <v>0.46875</v>
       </c>
       <c r="H11">
-        <v>0.6666666666666666</v>
+        <v>0.34375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.3914946315178513</v>
+      </c>
+      <c r="C12">
+        <v>0.3592177112939497</v>
+      </c>
+      <c r="D12">
+        <v>0.3831420711954768</v>
+      </c>
+      <c r="E12">
+        <v>0.357397434454323</v>
+      </c>
+      <c r="F12">
+        <v>0.338337907809657</v>
+      </c>
+      <c r="G12">
+        <v>0.3731687821296955</v>
+      </c>
+      <c r="H12">
+        <v>0.2901455083711276</v>
       </c>
     </row>
   </sheetData>
@@ -2774,9 +2980,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2810,25 +3016,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1538461538461539</v>
+        <v>0.2894736842105263</v>
       </c>
       <c r="C2">
-        <v>0.1538461538461539</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="D2">
-        <v>0.2307692307692308</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="E2">
-        <v>0.1538461538461539</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="F2">
-        <v>0.2307692307692308</v>
+        <v>0.3421052631578947</v>
       </c>
       <c r="G2">
-        <v>0.1538461538461539</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="H2">
-        <v>0.2307692307692308</v>
+        <v>0.2631578947368421</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2836,25 +3042,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1666666666666667</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="C3">
-        <v>0.3333333333333333</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="D3">
-        <v>0.1666666666666667</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="E3">
-        <v>0.1666666666666667</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="F3">
-        <v>0.08333333333333333</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.2368421052631579</v>
       </c>
       <c r="H3">
-        <v>0.3333333333333333</v>
+        <v>0.2894736842105263</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2862,25 +3068,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1666666666666667</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="C4">
-        <v>0.1666666666666667</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="D4">
-        <v>0.08333333333333333</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="E4">
-        <v>0.1666666666666667</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="F4">
-        <v>0.08333333333333333</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.2631578947368421</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2888,25 +3094,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1666666666666667</v>
+        <v>0.3714285714285714</v>
       </c>
       <c r="C5">
-        <v>0.1666666666666667</v>
+        <v>0.2571428571428571</v>
       </c>
       <c r="D5">
-        <v>0.08333333333333333</v>
+        <v>0.3428571428571429</v>
       </c>
       <c r="E5">
-        <v>0.1666666666666667</v>
+        <v>0.2285714285714286</v>
       </c>
       <c r="F5">
-        <v>0.1666666666666667</v>
+        <v>0.3714285714285714</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H5">
-        <v>0.1666666666666667</v>
+        <v>0.2285714285714286</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2914,25 +3120,25 @@
         <v>4</v>
       </c>
       <c r="B6">
+        <v>0.3428571428571429</v>
+      </c>
+      <c r="C6">
         <v>0.2</v>
       </c>
-      <c r="C6">
-        <v>0.3</v>
-      </c>
       <c r="D6">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="E6">
-        <v>0.2</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="F6">
-        <v>0.2</v>
+        <v>0.3428571428571429</v>
       </c>
       <c r="G6">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="H6">
-        <v>0.4</v>
+        <v>0.2285714285714286</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2940,25 +3146,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2222222222222222</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="C7">
-        <v>0.3333333333333333</v>
+        <v>0.303030303030303</v>
       </c>
       <c r="D7">
-        <v>0.1111111111111111</v>
+        <v>0.4242424242424243</v>
       </c>
       <c r="E7">
-        <v>0.2222222222222222</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="F7">
-        <v>0.1111111111111111</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="G7">
-        <v>0.1111111111111111</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="H7">
-        <v>0.1111111111111111</v>
+        <v>0.3636363636363636</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2966,25 +3172,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3333333333333333</v>
+        <v>0.34375</v>
       </c>
       <c r="C8">
-        <v>0.3333333333333333</v>
+        <v>0.15625</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.3125</v>
       </c>
       <c r="E8">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="F8">
-        <v>0.1666666666666667</v>
+        <v>0.28125</v>
       </c>
       <c r="G8">
-        <v>0.1666666666666667</v>
+        <v>0.1875</v>
       </c>
       <c r="H8">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2992,25 +3198,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3333333333333333</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="C9">
-        <v>0.3333333333333333</v>
+        <v>0.2333333333333333</v>
       </c>
       <c r="D9">
+        <v>0.3</v>
+      </c>
+      <c r="E9">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="F9">
         <v>0.1666666666666667</v>
       </c>
-      <c r="E9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H9">
-        <v>0.3333333333333333</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3018,25 +3224,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.3333333333333333</v>
+        <v>0.3448275862068966</v>
       </c>
       <c r="C10">
-        <v>0.3333333333333333</v>
+        <v>0.2068965517241379</v>
       </c>
       <c r="D10">
-        <v>0.1666666666666667</v>
+        <v>0.3448275862068966</v>
       </c>
       <c r="E10">
-        <v>0.3333333333333333</v>
+        <v>0.1724137931034483</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>0.3448275862068966</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.4137931034482759</v>
       </c>
       <c r="H10">
-        <v>0.3333333333333333</v>
+        <v>0.3793103448275862</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3044,25 +3250,51 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="C11">
-        <v>0.2</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="E11">
-        <v>0.4</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="G11">
-        <v>0.2</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="H11">
-        <v>0.4</v>
+        <v>0.1851851851851852</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.3245252100776149</v>
+      </c>
+      <c r="C12">
+        <v>0.2389791446790085</v>
+      </c>
+      <c r="D12">
+        <v>0.3315460291708023</v>
+      </c>
+      <c r="E12">
+        <v>0.2112963399442528</v>
+      </c>
+      <c r="F12">
+        <v>0.292303209368772</v>
+      </c>
+      <c r="G12">
+        <v>0.2897746357796267</v>
+      </c>
+      <c r="H12">
+        <v>0.2751064224476202</v>
       </c>
     </row>
   </sheetData>
@@ -3070,9 +3302,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3106,25 +3338,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="C2">
-        <v>0.275</v>
+        <v>0.3</v>
       </c>
       <c r="D2">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="E2">
         <v>0.2</v>
       </c>
       <c r="F2">
-        <v>0.275</v>
+        <v>0.2</v>
       </c>
       <c r="G2">
+        <v>0.3</v>
+      </c>
+      <c r="H2">
         <v>0.175</v>
-      </c>
-      <c r="H2">
-        <v>0.3</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3132,13 +3364,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4</v>
+        <v>0.375</v>
       </c>
       <c r="C3">
-        <v>0.275</v>
+        <v>0.475</v>
       </c>
       <c r="D3">
-        <v>0.325</v>
+        <v>0.35</v>
       </c>
       <c r="E3">
         <v>0.325</v>
@@ -3147,7 +3379,7 @@
         <v>0.3</v>
       </c>
       <c r="G3">
-        <v>0.175</v>
+        <v>0.4</v>
       </c>
       <c r="H3">
         <v>0.3</v>
@@ -3161,22 +3393,22 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="C4">
-        <v>0.2051282051282051</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="D4">
-        <v>0.282051282051282</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E4">
         <v>0.3846153846153846</v>
       </c>
       <c r="F4">
-        <v>0.2564102564102564</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.1794871794871795</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="H4">
-        <v>0.1538461538461539</v>
+        <v>0.3076923076923077</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3184,25 +3416,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4210526315789473</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="C5">
+        <v>0.4736842105263158</v>
+      </c>
+      <c r="D5">
+        <v>0.3947368421052632</v>
+      </c>
+      <c r="E5">
+        <v>0.3421052631578947</v>
+      </c>
+      <c r="F5">
+        <v>0.5</v>
+      </c>
+      <c r="G5">
+        <v>0.2631578947368421</v>
+      </c>
+      <c r="H5">
         <v>0.3684210526315789</v>
-      </c>
-      <c r="D5">
-        <v>0.3157894736842105</v>
-      </c>
-      <c r="E5">
-        <v>0.5526315789473685</v>
-      </c>
-      <c r="F5">
-        <v>0.2894736842105263</v>
-      </c>
-      <c r="G5">
-        <v>0.1842105263157895</v>
-      </c>
-      <c r="H5">
-        <v>0.2894736842105263</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3210,25 +3442,25 @@
         <v>4</v>
       </c>
       <c r="B6">
+        <v>0.3947368421052632</v>
+      </c>
+      <c r="C6">
+        <v>0.3684210526315789</v>
+      </c>
+      <c r="D6">
         <v>0.4473684210526316</v>
       </c>
-      <c r="C6">
-        <v>0.2105263157894737</v>
-      </c>
-      <c r="D6">
+      <c r="E6">
         <v>0.3157894736842105</v>
       </c>
-      <c r="E6">
-        <v>0.3684210526315789</v>
-      </c>
       <c r="F6">
-        <v>0.2894736842105263</v>
+        <v>0.3947368421052632</v>
       </c>
       <c r="G6">
-        <v>0.1842105263157895</v>
+        <v>0.3947368421052632</v>
       </c>
       <c r="H6">
-        <v>0.3157894736842105</v>
+        <v>0.2368421052631579</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3236,25 +3468,25 @@
         <v>5</v>
       </c>
       <c r="B7">
+        <v>0.3783783783783784</v>
+      </c>
+      <c r="C7">
+        <v>0.3783783783783784</v>
+      </c>
+      <c r="D7">
         <v>0.4324324324324325</v>
       </c>
-      <c r="C7">
-        <v>0.3513513513513514</v>
-      </c>
-      <c r="D7">
-        <v>0.3513513513513514</v>
-      </c>
       <c r="E7">
-        <v>0.3513513513513514</v>
+        <v>0.3243243243243243</v>
       </c>
       <c r="F7">
         <v>0.2972972972972973</v>
       </c>
       <c r="G7">
-        <v>0.1891891891891892</v>
+        <v>0.3783783783783784</v>
       </c>
       <c r="H7">
-        <v>0.4054054054054054</v>
+        <v>0.2702702702702703</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3262,25 +3494,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.4166666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C8">
-        <v>0.1944444444444444</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="D8">
-        <v>0.4444444444444444</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="E8">
         <v>0.2777777777777778</v>
       </c>
       <c r="F8">
+        <v>0.2777777777777778</v>
+      </c>
+      <c r="G8">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="H8">
         <v>0.3055555555555556</v>
-      </c>
-      <c r="G8">
-        <v>0.1944444444444444</v>
-      </c>
-      <c r="H8">
-        <v>0.3611111111111111</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3288,25 +3520,25 @@
         <v>7</v>
       </c>
       <c r="B9">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="C9">
         <v>0.2857142857142857</v>
       </c>
-      <c r="C9">
+      <c r="D9">
+        <v>0.4</v>
+      </c>
+      <c r="E9">
+        <v>0.3142857142857143</v>
+      </c>
+      <c r="F9">
+        <v>0.4</v>
+      </c>
+      <c r="G9">
+        <v>0.3428571428571429</v>
+      </c>
+      <c r="H9">
         <v>0.2</v>
-      </c>
-      <c r="D9">
-        <v>0.3428571428571429</v>
-      </c>
-      <c r="E9">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="F9">
-        <v>0.2571428571428571</v>
-      </c>
-      <c r="G9">
-        <v>0.1714285714285714</v>
-      </c>
-      <c r="H9">
-        <v>0.1714285714285714</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3314,25 +3546,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.3823529411764706</v>
+        <v>0.2647058823529412</v>
       </c>
       <c r="C10">
-        <v>0.2058823529411765</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="D10">
-        <v>0.3529411764705883</v>
+        <v>0.2647058823529412</v>
       </c>
       <c r="E10">
-        <v>0.2941176470588235</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="F10">
-        <v>0.2941176470588235</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="G10">
         <v>0.1764705882352941</v>
       </c>
       <c r="H10">
-        <v>0.2352941176470588</v>
+        <v>0.2647058823529412</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3340,25 +3572,51 @@
         <v>9</v>
       </c>
       <c r="B11">
+        <v>0.46875</v>
+      </c>
+      <c r="C11">
+        <v>0.15625</v>
+      </c>
+      <c r="D11">
+        <v>0.53125</v>
+      </c>
+      <c r="E11">
         <v>0.3125</v>
       </c>
-      <c r="C11">
-        <v>0.21875</v>
-      </c>
-      <c r="D11">
+      <c r="F11">
+        <v>0.375</v>
+      </c>
+      <c r="G11">
         <v>0.34375</v>
-      </c>
-      <c r="E11">
-        <v>0.34375</v>
-      </c>
-      <c r="F11">
-        <v>0.28125</v>
-      </c>
-      <c r="G11">
-        <v>0.1875</v>
       </c>
       <c r="H11">
         <v>0.34375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.3595230250706257</v>
+      </c>
+      <c r="C12">
+        <v>0.3556351899095707</v>
+      </c>
+      <c r="D12">
+        <v>0.3814938022387713</v>
+      </c>
+      <c r="E12">
+        <v>0.3031692055492365</v>
+      </c>
+      <c r="F12">
+        <v>0.331343936816073</v>
+      </c>
+      <c r="G12">
+        <v>0.3370718367680442</v>
+      </c>
+      <c r="H12">
+        <v>0.2772237173765811</v>
       </c>
     </row>
   </sheetData>
@@ -3366,9 +3624,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3402,25 +3660,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2631578947368421</v>
+        <v>0.375</v>
       </c>
       <c r="C2">
-        <v>0.1842105263157895</v>
+        <v>0.25</v>
       </c>
       <c r="D2">
-        <v>0.2631578947368421</v>
+        <v>0.4</v>
       </c>
       <c r="E2">
-        <v>0.3421052631578947</v>
+        <v>0.2</v>
       </c>
       <c r="F2">
-        <v>0.2894736842105263</v>
+        <v>0.275</v>
       </c>
       <c r="G2">
-        <v>0.131578947368421</v>
+        <v>0.275</v>
       </c>
       <c r="H2">
-        <v>0.2631578947368421</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3428,25 +3686,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3684210526315789</v>
+        <v>0.35</v>
       </c>
       <c r="C3">
-        <v>0.2368421052631579</v>
+        <v>0.225</v>
       </c>
       <c r="D3">
-        <v>0.1578947368421053</v>
+        <v>0.4</v>
       </c>
       <c r="E3">
-        <v>0.2631578947368421</v>
+        <v>0.275</v>
       </c>
       <c r="F3">
-        <v>0.2894736842105263</v>
+        <v>0.3</v>
       </c>
       <c r="G3">
-        <v>0.1842105263157895</v>
+        <v>0.3</v>
       </c>
       <c r="H3">
-        <v>0.3684210526315789</v>
+        <v>0.225</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3454,25 +3712,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2631578947368421</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="C4">
-        <v>0.1842105263157895</v>
+        <v>0.2564102564102564</v>
       </c>
       <c r="D4">
-        <v>0.2105263157894737</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="E4">
-        <v>0.3157894736842105</v>
+        <v>0.282051282051282</v>
       </c>
       <c r="F4">
-        <v>0.2105263157894737</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="G4">
-        <v>0.131578947368421</v>
+        <v>0.2051282051282051</v>
       </c>
       <c r="H4">
-        <v>0.2631578947368421</v>
+        <v>0.282051282051282</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3480,25 +3738,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3428571428571429</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="C5">
-        <v>0.3428571428571429</v>
+        <v>0.3947368421052632</v>
       </c>
       <c r="D5">
-        <v>0.2285714285714286</v>
+        <v>0.5</v>
       </c>
       <c r="E5">
-        <v>0.3714285714285714</v>
+        <v>0.5</v>
       </c>
       <c r="F5">
-        <v>0.3142857142857143</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="G5">
-        <v>0.1428571428571428</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="H5">
-        <v>0.2857142857142857</v>
+        <v>0.2631578947368421</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3506,25 +3764,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="C6">
-        <v>0.2571428571428571</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="D6">
-        <v>0.1428571428571428</v>
+        <v>0.4473684210526316</v>
       </c>
       <c r="E6">
-        <v>0.3428571428571429</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="F6">
-        <v>0.2571428571428571</v>
+        <v>0.4473684210526316</v>
       </c>
       <c r="G6">
-        <v>0.1714285714285714</v>
+        <v>0.3947368421052632</v>
       </c>
       <c r="H6">
-        <v>0.2285714285714286</v>
+        <v>0.2368421052631579</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3532,25 +3790,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4242424242424243</v>
+        <v>0.4594594594594595</v>
       </c>
       <c r="C7">
-        <v>0.2424242424242424</v>
+        <v>0.3783783783783784</v>
       </c>
       <c r="D7">
-        <v>0.2727272727272727</v>
+        <v>0.4324324324324325</v>
       </c>
       <c r="E7">
-        <v>0.2727272727272727</v>
+        <v>0.4324324324324325</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.3783783783783784</v>
       </c>
       <c r="G7">
-        <v>0.1818181818181818</v>
+        <v>0.3783783783783784</v>
       </c>
       <c r="H7">
-        <v>0.3636363636363636</v>
+        <v>0.4054054054054054</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3558,25 +3816,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3125</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C8">
-        <v>0.3125</v>
+        <v>0.1944444444444444</v>
       </c>
       <c r="D8">
-        <v>0.25</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="E8">
-        <v>0.28125</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="F8">
-        <v>0.375</v>
+        <v>0.3055555555555556</v>
       </c>
       <c r="G8">
-        <v>0.15625</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="H8">
-        <v>0.21875</v>
+        <v>0.1944444444444444</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3584,25 +3842,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3</v>
+        <v>0.3714285714285714</v>
       </c>
       <c r="C9">
-        <v>0.3</v>
+        <v>0.3428571428571429</v>
       </c>
       <c r="D9">
-        <v>0.2666666666666667</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="E9">
-        <v>0.1666666666666667</v>
+        <v>0.3142857142857143</v>
       </c>
       <c r="F9">
-        <v>0.3</v>
+        <v>0.3428571428571429</v>
       </c>
       <c r="G9">
-        <v>0.1666666666666667</v>
+        <v>0.2285714285714286</v>
       </c>
       <c r="H9">
-        <v>0.3</v>
+        <v>0.2571428571428571</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3610,25 +3868,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.3448275862068966</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="C10">
-        <v>0.2413793103448276</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="D10">
-        <v>0.1724137931034483</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="E10">
-        <v>0.3448275862068966</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="F10">
-        <v>0.2068965517241379</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="G10">
-        <v>0.1379310344827586</v>
+        <v>0.3235294117647059</v>
       </c>
       <c r="H10">
-        <v>0.3793103448275862</v>
+        <v>0.2352941176470588</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3636,25 +3894,51 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.2962962962962963</v>
+        <v>0.4375</v>
       </c>
       <c r="C11">
-        <v>0.1851851851851852</v>
+        <v>0.3125</v>
       </c>
       <c r="D11">
-        <v>0.1481481481481481</v>
+        <v>0.46875</v>
       </c>
       <c r="E11">
-        <v>0.2222222222222222</v>
+        <v>0.3125</v>
       </c>
       <c r="F11">
-        <v>0.2222222222222222</v>
+        <v>0.21875</v>
       </c>
       <c r="G11">
-        <v>0.1851851851851852</v>
+        <v>0.46875</v>
       </c>
       <c r="H11">
-        <v>0.2222222222222222</v>
+        <v>0.46875</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.3888283640953919</v>
+      </c>
+      <c r="C12">
+        <v>0.3023057714350284</v>
+      </c>
+      <c r="D12">
+        <v>0.4032932811396434</v>
+      </c>
+      <c r="E12">
+        <v>0.3228464131211809</v>
+      </c>
+      <c r="F12">
+        <v>0.3361503210632467</v>
+      </c>
+      <c r="G12">
+        <v>0.3272924675304706</v>
+      </c>
+      <c r="H12">
+        <v>0.2868088106691048</v>
       </c>
     </row>
   </sheetData>
@@ -3662,9 +3946,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3698,25 +3982,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3</v>
+        <v>0.225</v>
       </c>
       <c r="C2">
+        <v>0.325</v>
+      </c>
+      <c r="D2">
+        <v>0.375</v>
+      </c>
+      <c r="E2">
+        <v>0.175</v>
+      </c>
+      <c r="F2">
         <v>0.225</v>
       </c>
-      <c r="D2">
-        <v>0.2</v>
-      </c>
-      <c r="E2">
-        <v>0.2</v>
-      </c>
-      <c r="F2">
+      <c r="G2">
+        <v>0.4</v>
+      </c>
+      <c r="H2">
         <v>0.275</v>
-      </c>
-      <c r="G2">
-        <v>0.175</v>
-      </c>
-      <c r="H2">
-        <v>0.175</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3724,22 +4008,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.35</v>
+        <v>0.325</v>
       </c>
       <c r="C3">
+        <v>0.45</v>
+      </c>
+      <c r="D3">
+        <v>0.375</v>
+      </c>
+      <c r="E3">
+        <v>0.225</v>
+      </c>
+      <c r="F3">
         <v>0.275</v>
       </c>
-      <c r="D3">
-        <v>0.325</v>
-      </c>
-      <c r="E3">
-        <v>0.3</v>
-      </c>
-      <c r="F3">
-        <v>0.3</v>
-      </c>
       <c r="G3">
-        <v>0.175</v>
+        <v>0.4</v>
       </c>
       <c r="H3">
         <v>0.275</v>
@@ -3750,25 +4034,25 @@
         <v>2</v>
       </c>
       <c r="B4">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="C4">
+        <v>0.2051282051282051</v>
+      </c>
+      <c r="D4">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="E4">
+        <v>0.2307692307692308</v>
+      </c>
+      <c r="F4">
         <v>0.3333333333333333</v>
       </c>
-      <c r="C4">
-        <v>0.3846153846153846</v>
-      </c>
-      <c r="D4">
-        <v>0.3846153846153846</v>
-      </c>
-      <c r="E4">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="F4">
-        <v>0.282051282051282</v>
-      </c>
       <c r="G4">
-        <v>0.1794871794871795</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="H4">
-        <v>0.3076923076923077</v>
+        <v>0.2307692307692308</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3779,22 +4063,22 @@
         <v>0.3947368421052632</v>
       </c>
       <c r="C5">
+        <v>0.2631578947368421</v>
+      </c>
+      <c r="D5">
+        <v>0.5263157894736842</v>
+      </c>
+      <c r="E5">
+        <v>0.2105263157894737</v>
+      </c>
+      <c r="F5">
+        <v>0.4736842105263158</v>
+      </c>
+      <c r="G5">
+        <v>0.2368421052631579</v>
+      </c>
+      <c r="H5">
         <v>0.2894736842105263</v>
-      </c>
-      <c r="D5">
-        <v>0.3421052631578947</v>
-      </c>
-      <c r="E5">
-        <v>0.5</v>
-      </c>
-      <c r="F5">
-        <v>0.3157894736842105</v>
-      </c>
-      <c r="G5">
-        <v>0.1842105263157895</v>
-      </c>
-      <c r="H5">
-        <v>0.3157894736842105</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3802,25 +4086,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4473684210526316</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="C6">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="D6">
         <v>0.3684210526315789</v>
       </c>
-      <c r="D6">
-        <v>0.3157894736842105</v>
-      </c>
       <c r="E6">
-        <v>0.3947368421052632</v>
+        <v>0.1842105263157895</v>
       </c>
       <c r="F6">
-        <v>0.3157894736842105</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="G6">
-        <v>0.1842105263157895</v>
+        <v>0.3421052631578947</v>
       </c>
       <c r="H6">
-        <v>0.3684210526315789</v>
+        <v>0.2105263157894737</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3828,25 +4112,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4324324324324325</v>
+        <v>0.4594594594594595</v>
       </c>
       <c r="C7">
+        <v>0.4594594594594595</v>
+      </c>
+      <c r="D7">
+        <v>0.4054054054054054</v>
+      </c>
+      <c r="E7">
+        <v>0.2702702702702703</v>
+      </c>
+      <c r="F7">
+        <v>0.2972972972972973</v>
+      </c>
+      <c r="G7">
         <v>0.3513513513513514</v>
       </c>
-      <c r="D7">
-        <v>0.3243243243243243</v>
-      </c>
-      <c r="E7">
-        <v>0.2972972972972973</v>
-      </c>
-      <c r="F7">
-        <v>0.3243243243243243</v>
-      </c>
-      <c r="G7">
-        <v>0.1891891891891892</v>
-      </c>
       <c r="H7">
-        <v>0.2972972972972973</v>
+        <v>0.4594594594594595</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3854,25 +4138,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3611111111111111</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="C8">
         <v>0.2777777777777778</v>
       </c>
       <c r="D8">
-        <v>0.2777777777777778</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="E8">
         <v>0.2777777777777778</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="G8">
-        <v>0.1944444444444444</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="H8">
-        <v>0.3055555555555556</v>
+        <v>0.3611111111111111</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3883,22 +4167,22 @@
         <v>0.4</v>
       </c>
       <c r="C9">
-        <v>0.2285714285714286</v>
+        <v>0.3428571428571429</v>
       </c>
       <c r="D9">
+        <v>0.3428571428571429</v>
+      </c>
+      <c r="E9">
+        <v>0.2571428571428571</v>
+      </c>
+      <c r="F9">
+        <v>0.3428571428571429</v>
+      </c>
+      <c r="G9">
+        <v>0.2</v>
+      </c>
+      <c r="H9">
         <v>0.3142857142857143</v>
-      </c>
-      <c r="E9">
-        <v>0.4</v>
-      </c>
-      <c r="F9">
-        <v>0.2571428571428571</v>
-      </c>
-      <c r="G9">
-        <v>0.1714285714285714</v>
-      </c>
-      <c r="H9">
-        <v>0.2285714285714286</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3906,25 +4190,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.2647058823529412</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="C10">
-        <v>0.2058823529411765</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="D10">
-        <v>0.2352941176470588</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="E10">
-        <v>0.2352941176470588</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="F10">
-        <v>0.2647058823529412</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="G10">
-        <v>0.1764705882352941</v>
+        <v>0.3235294117647059</v>
       </c>
       <c r="H10">
-        <v>0.2647058823529412</v>
+        <v>0.3235294117647059</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3932,25 +4216,51 @@
         <v>9</v>
       </c>
       <c r="B11">
+        <v>0.4375</v>
+      </c>
+      <c r="C11">
         <v>0.53125</v>
       </c>
-      <c r="C11">
+      <c r="D11">
+        <v>0.53125</v>
+      </c>
+      <c r="E11">
         <v>0.3125</v>
-      </c>
-      <c r="D11">
-        <v>0.3125</v>
-      </c>
-      <c r="E11">
-        <v>0.375</v>
       </c>
       <c r="F11">
         <v>0.3125</v>
       </c>
       <c r="G11">
-        <v>0.1875</v>
+        <v>0.5</v>
       </c>
       <c r="H11">
-        <v>0.34375</v>
+        <v>0.53125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.3633998701607061</v>
+      </c>
+      <c r="C12">
+        <v>0.3464537600702461</v>
+      </c>
+      <c r="D12">
+        <v>0.3920352960000792</v>
+      </c>
+      <c r="E12">
+        <v>0.2319667566300693</v>
+      </c>
+      <c r="F12">
+        <v>0.3187604560553476</v>
+      </c>
+      <c r="G12">
+        <v>0.337348625119523</v>
+      </c>
+      <c r="H12">
+        <v>0.3270404927390222</v>
       </c>
     </row>
   </sheetData>
@@ -3958,9 +4268,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3994,25 +4304,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.4</v>
+        <v>0.1794871794871795</v>
       </c>
       <c r="C2">
-        <v>0.175</v>
+        <v>0.2564102564102564</v>
       </c>
       <c r="D2">
-        <v>0.2</v>
+        <v>0.2564102564102564</v>
       </c>
       <c r="E2">
-        <v>0.275</v>
+        <v>0.2564102564102564</v>
       </c>
       <c r="F2">
-        <v>0.275</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="G2">
-        <v>0.175</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H2">
-        <v>0.3</v>
+        <v>0.2564102564102564</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -4020,25 +4330,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="C3">
-        <v>0.35</v>
+        <v>0.2564102564102564</v>
       </c>
       <c r="D3">
-        <v>0.275</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="E3">
-        <v>0.3</v>
+        <v>0.282051282051282</v>
       </c>
       <c r="F3">
-        <v>0.3</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="G3">
-        <v>0.175</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H3">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -4046,25 +4356,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="D4">
         <v>0.2564102564102564</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>0.282051282051282</v>
       </c>
-      <c r="E4">
-        <v>0.3846153846153846</v>
-      </c>
       <c r="F4">
-        <v>0.282051282051282</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.1538461538461539</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="H4">
-        <v>0.2564102564102564</v>
+        <v>0.2051282051282051</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -4072,25 +4382,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5</v>
+        <v>0.3783783783783784</v>
       </c>
       <c r="C5">
-        <v>0.2368421052631579</v>
+        <v>0.2702702702702703</v>
       </c>
       <c r="D5">
-        <v>0.5</v>
+        <v>0.4594594594594595</v>
       </c>
       <c r="E5">
-        <v>0.4736842105263158</v>
+        <v>0.3513513513513514</v>
       </c>
       <c r="F5">
-        <v>0.3157894736842105</v>
+        <v>0.4324324324324325</v>
       </c>
       <c r="G5">
-        <v>0.1578947368421053</v>
+        <v>0.3783783783783784</v>
       </c>
       <c r="H5">
-        <v>0.2894736842105263</v>
+        <v>0.2702702702702703</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -4098,25 +4408,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4473684210526316</v>
+        <v>0.3513513513513514</v>
       </c>
       <c r="C6">
-        <v>0.3157894736842105</v>
+        <v>0.1621621621621622</v>
       </c>
       <c r="D6">
-        <v>0.3157894736842105</v>
+        <v>0.3513513513513514</v>
       </c>
       <c r="E6">
-        <v>0.4473684210526316</v>
+        <v>0.3513513513513514</v>
       </c>
       <c r="F6">
-        <v>0.2894736842105263</v>
+        <v>0.3243243243243243</v>
       </c>
       <c r="G6">
-        <v>0.1578947368421053</v>
+        <v>0.3513513513513514</v>
       </c>
       <c r="H6">
-        <v>0.2631578947368421</v>
+        <v>0.3783783783783784</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -4124,25 +4434,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4324324324324325</v>
+        <v>0.3055555555555556</v>
       </c>
       <c r="C7">
-        <v>0.4054054054054054</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D7">
-        <v>0.4324324324324325</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E7">
-        <v>0.3783783783783784</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="F7">
-        <v>0.3243243243243243</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="G7">
-        <v>0.1621621621621622</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="H7">
-        <v>0.3513513513513514</v>
+        <v>0.2777777777777778</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -4150,25 +4460,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3611111111111111</v>
+        <v>0.3714285714285714</v>
       </c>
       <c r="C8">
-        <v>0.2222222222222222</v>
+        <v>0.2571428571428571</v>
       </c>
       <c r="D8">
-        <v>0.3611111111111111</v>
+        <v>0.4571428571428571</v>
       </c>
       <c r="E8">
-        <v>0.3055555555555556</v>
+        <v>0.2571428571428571</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>0.2571428571428571</v>
       </c>
       <c r="G8">
-        <v>0.1666666666666667</v>
+        <v>0.3428571428571429</v>
       </c>
       <c r="H8">
-        <v>0.1388888888888889</v>
+        <v>0.2285714285714286</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -4176,25 +4486,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.2857142857142857</v>
+        <v>0.3235294117647059</v>
       </c>
       <c r="C9">
-        <v>0.2285714285714286</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="D9">
-        <v>0.3142857142857143</v>
+        <v>0.3235294117647059</v>
       </c>
       <c r="E9">
-        <v>0.3428571428571429</v>
+        <v>0.2058823529411765</v>
       </c>
       <c r="F9">
-        <v>0.2285714285714286</v>
+        <v>0.3235294117647059</v>
       </c>
       <c r="G9">
-        <v>0.1714285714285714</v>
+        <v>0.1470588235294118</v>
       </c>
       <c r="H9">
-        <v>0.3142857142857143</v>
+        <v>0.2058823529411765</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -4202,25 +4512,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.3529411764705883</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="C10">
-        <v>0.3235294117647059</v>
+        <v>0.2121212121212121</v>
       </c>
       <c r="D10">
-        <v>0.2352941176470588</v>
+        <v>0.2121212121212121</v>
       </c>
       <c r="E10">
-        <v>0.2352941176470588</v>
+        <v>0.2121212121212121</v>
       </c>
       <c r="F10">
-        <v>0.2352941176470588</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="G10">
-        <v>0.1470588235294118</v>
+        <v>0.2121212121212121</v>
       </c>
       <c r="H10">
-        <v>0.2058823529411765</v>
+        <v>0.2121212121212121</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -4228,25 +4538,51 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.46875</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C11">
-        <v>0.34375</v>
+        <v>0.3</v>
       </c>
       <c r="D11">
-        <v>0.3125</v>
+        <v>0.4</v>
       </c>
       <c r="E11">
-        <v>0.21875</v>
+        <v>0.3</v>
       </c>
       <c r="F11">
-        <v>0.3125</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="G11">
-        <v>0.1875</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="H11">
-        <v>0.4375</v>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.324772578596108</v>
+      </c>
+      <c r="C12">
+        <v>0.261647779883074</v>
+      </c>
+      <c r="D12">
+        <v>0.335745044568574</v>
+      </c>
+      <c r="E12">
+        <v>0.2776139723198546</v>
+      </c>
+      <c r="F12">
+        <v>0.3205882794118088</v>
+      </c>
+      <c r="G12">
+        <v>0.3133903660374248</v>
+      </c>
+      <c r="H12">
+        <v>0.2667873214932038</v>
       </c>
     </row>
   </sheetData>
@@ -4254,9 +4590,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4290,25 +4626,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.375</v>
+        <v>0.3055555555555556</v>
       </c>
       <c r="C2">
-        <v>0.175</v>
+        <v>0.1944444444444444</v>
       </c>
       <c r="D2">
-        <v>0.175</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E2">
-        <v>0.225</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F2">
-        <v>0.275</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="G2">
-        <v>0.175</v>
+        <v>0.3055555555555556</v>
       </c>
       <c r="H2">
-        <v>0.25</v>
+        <v>0.2777777777777778</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -4316,25 +4652,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.375</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="C3">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="D3">
-        <v>0.225</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="E3">
-        <v>0.275</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="F3">
-        <v>0.3</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="G3">
-        <v>0.175</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="H3">
-        <v>0.275</v>
+        <v>0.3888888888888889</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -4342,25 +4678,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.282051282051282</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="C4">
-        <v>0.1794871794871795</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="D4">
-        <v>0.2307692307692308</v>
+        <v>0.3235294117647059</v>
       </c>
       <c r="E4">
-        <v>0.3333333333333333</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="F4">
-        <v>0.282051282051282</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="G4">
-        <v>0.1794871794871795</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="H4">
-        <v>0.2307692307692308</v>
+        <v>0.2647058823529412</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -4368,25 +4704,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5263157894736842</v>
+        <v>0.28125</v>
       </c>
       <c r="C5">
-        <v>0.2105263157894737</v>
+        <v>0.21875</v>
       </c>
       <c r="D5">
-        <v>0.2105263157894737</v>
+        <v>0.28125</v>
       </c>
       <c r="E5">
-        <v>0.4736842105263158</v>
+        <v>0.125</v>
       </c>
       <c r="F5">
-        <v>0.3157894736842105</v>
+        <v>0.3125</v>
       </c>
       <c r="G5">
-        <v>0.1842105263157895</v>
+        <v>0.34375</v>
       </c>
       <c r="H5">
-        <v>0.2368421052631579</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -4394,25 +4730,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3684210526315789</v>
+        <v>0.2903225806451613</v>
       </c>
       <c r="C6">
-        <v>0.2368421052631579</v>
+        <v>0.1290322580645161</v>
       </c>
       <c r="D6">
-        <v>0.1842105263157895</v>
+        <v>0.2903225806451613</v>
       </c>
       <c r="E6">
-        <v>0.4736842105263158</v>
+        <v>0.1935483870967742</v>
       </c>
       <c r="F6">
-        <v>0.2894736842105263</v>
+        <v>0.3225806451612903</v>
       </c>
       <c r="G6">
-        <v>0.1842105263157895</v>
+        <v>0.2580645161290323</v>
       </c>
       <c r="H6">
-        <v>0.2105263157894737</v>
+        <v>0.3870967741935484</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -4420,25 +4756,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4054054054054054</v>
+        <v>0.3793103448275862</v>
       </c>
       <c r="C7">
-        <v>0.1891891891891892</v>
+        <v>0.4137931034482759</v>
       </c>
       <c r="D7">
-        <v>0.2702702702702703</v>
+        <v>0.4137931034482759</v>
       </c>
       <c r="E7">
-        <v>0.2972972972972973</v>
+        <v>0.3448275862068966</v>
       </c>
       <c r="F7">
-        <v>0.3243243243243243</v>
+        <v>0.3448275862068966</v>
       </c>
       <c r="G7">
-        <v>0.1891891891891892</v>
+        <v>0.3103448275862069</v>
       </c>
       <c r="H7">
-        <v>0.4594594594594595</v>
+        <v>0.3103448275862069</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -4446,25 +4782,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3611111111111111</v>
+        <v>0.2758620689655172</v>
       </c>
       <c r="C8">
-        <v>0.25</v>
+        <v>0.1379310344827586</v>
       </c>
       <c r="D8">
-        <v>0.2777777777777778</v>
+        <v>0.3103448275862069</v>
       </c>
       <c r="E8">
-        <v>0.2777777777777778</v>
+        <v>0.103448275862069</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>0.3103448275862069</v>
       </c>
       <c r="G8">
-        <v>0.1944444444444444</v>
+        <v>0.3448275862068966</v>
       </c>
       <c r="H8">
-        <v>0.25</v>
+        <v>0.3448275862068966</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -4472,25 +4808,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3428571428571429</v>
+        <v>0.2413793103448276</v>
       </c>
       <c r="C9">
-        <v>0.2285714285714286</v>
+        <v>0.2068965517241379</v>
       </c>
       <c r="D9">
-        <v>0.2571428571428571</v>
+        <v>0.3103448275862069</v>
       </c>
       <c r="E9">
-        <v>0.3428571428571429</v>
+        <v>0.103448275862069</v>
       </c>
       <c r="F9">
-        <v>0.2571428571428571</v>
+        <v>0.3103448275862069</v>
       </c>
       <c r="G9">
-        <v>0.1714285714285714</v>
+        <v>0.3103448275862069</v>
       </c>
       <c r="H9">
-        <v>0.2857142857142857</v>
+        <v>0.2758620689655172</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -4498,25 +4834,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.3529411764705883</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="C10">
-        <v>0.2352941176470588</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="D10">
-        <v>0.1764705882352941</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="E10">
-        <v>0.1764705882352941</v>
+        <v>0.1071428571428571</v>
       </c>
       <c r="F10">
-        <v>0.2352941176470588</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="G10">
-        <v>0.1764705882352941</v>
+        <v>0.25</v>
       </c>
       <c r="H10">
-        <v>0.3235294117647059</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -4524,25 +4860,51 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.53125</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="C11">
-        <v>0.375</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="D11">
-        <v>0.3125</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E11">
-        <v>0.3125</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="F11">
-        <v>0.28125</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.1875</v>
+        <v>0.2592592592592592</v>
       </c>
       <c r="H11">
-        <v>0.5</v>
+        <v>0.2222222222222222</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.2940190909202638</v>
+      </c>
+      <c r="C12">
+        <v>0.2313219007476925</v>
+      </c>
+      <c r="D12">
+        <v>0.3266886338332144</v>
+      </c>
+      <c r="E12">
+        <v>0.1987219303739293</v>
+      </c>
+      <c r="F12">
+        <v>0.3069318708202599</v>
+      </c>
+      <c r="G12">
+        <v>0.2895218467747994</v>
+      </c>
+      <c r="H12">
+        <v>0.3132440313908285</v>
       </c>
     </row>
   </sheetData>
@@ -4550,9 +4912,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4586,25 +4948,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2564102564102564</v>
+        <v>0.375</v>
       </c>
       <c r="C2">
-        <v>0.2564102564102564</v>
+        <v>0.275</v>
       </c>
       <c r="D2">
-        <v>0.2564102564102564</v>
+        <v>0.275</v>
       </c>
       <c r="E2">
-        <v>0.358974358974359</v>
+        <v>0.275</v>
       </c>
       <c r="F2">
-        <v>0.282051282051282</v>
+        <v>0.225</v>
       </c>
       <c r="G2">
-        <v>0.1282051282051282</v>
+        <v>0.325</v>
       </c>
       <c r="H2">
-        <v>0.2307692307692308</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -4612,25 +4974,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3076923076923077</v>
+        <v>0.35</v>
       </c>
       <c r="C3">
-        <v>0.2051282051282051</v>
+        <v>0.475</v>
       </c>
       <c r="D3">
-        <v>0.282051282051282</v>
+        <v>0.425</v>
       </c>
       <c r="E3">
-        <v>0.358974358974359</v>
+        <v>0.25</v>
       </c>
       <c r="F3">
-        <v>0.3076923076923077</v>
+        <v>0.325</v>
       </c>
       <c r="G3">
-        <v>0.1538461538461539</v>
+        <v>0.4</v>
       </c>
       <c r="H3">
-        <v>0.282051282051282</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -4638,25 +5000,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2564102564102564</v>
+        <v>0.282051282051282</v>
       </c>
       <c r="C4">
-        <v>0.282051282051282</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="D4">
-        <v>0.282051282051282</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="E4">
         <v>0.3333333333333333</v>
       </c>
       <c r="F4">
-        <v>0.282051282051282</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.1794871794871795</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="H4">
-        <v>0.1794871794871795</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -4664,25 +5026,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4594594594594595</v>
+        <v>0.3421052631578947</v>
       </c>
       <c r="C5">
-        <v>0.3243243243243243</v>
+        <v>0.2894736842105263</v>
       </c>
       <c r="D5">
-        <v>0.3513513513513514</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="E5">
-        <v>0.4324324324324325</v>
+        <v>0.3421052631578947</v>
       </c>
       <c r="F5">
-        <v>0.2972972972972973</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="G5">
-        <v>0.1891891891891892</v>
+        <v>0.3421052631578947</v>
       </c>
       <c r="H5">
-        <v>0.2972972972972973</v>
+        <v>0.2894736842105263</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -4690,25 +5052,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3513513513513514</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="C6">
-        <v>0.3783783783783784</v>
+        <v>0.3421052631578947</v>
       </c>
       <c r="D6">
-        <v>0.3513513513513514</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="E6">
-        <v>0.3243243243243243</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="F6">
-        <v>0.2432432432432433</v>
+        <v>0.4473684210526316</v>
       </c>
       <c r="G6">
-        <v>0.1621621621621622</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="H6">
-        <v>0.3513513513513514</v>
+        <v>0.4210526315789473</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -4716,25 +5078,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.3333333333333333</v>
+        <v>0.4054054054054054</v>
       </c>
       <c r="C7">
-        <v>0.2777777777777778</v>
+        <v>0.3513513513513514</v>
       </c>
       <c r="D7">
-        <v>0.2777777777777778</v>
+        <v>0.4324324324324325</v>
       </c>
       <c r="E7">
-        <v>0.2777777777777778</v>
+        <v>0.3513513513513514</v>
       </c>
       <c r="F7">
-        <v>0.3055555555555556</v>
+        <v>0.2972972972972973</v>
       </c>
       <c r="G7">
-        <v>0.1388888888888889</v>
+        <v>0.3783783783783784</v>
       </c>
       <c r="H7">
-        <v>0.3611111111111111</v>
+        <v>0.3783783783783784</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -4742,25 +5104,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.4571428571428571</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="C8">
-        <v>0.2571428571428571</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="D8">
-        <v>0.2571428571428571</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="E8">
-        <v>0.2571428571428571</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F8">
-        <v>0.2571428571428571</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="G8">
-        <v>0.1428571428571428</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="H8">
-        <v>0.2</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -4768,25 +5130,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3235294117647059</v>
+        <v>0.4</v>
       </c>
       <c r="C9">
-        <v>0.3529411764705883</v>
+        <v>0.3142857142857143</v>
       </c>
       <c r="D9">
-        <v>0.2058823529411765</v>
+        <v>0.3714285714285714</v>
       </c>
       <c r="E9">
-        <v>0.3235294117647059</v>
+        <v>0.3428571428571429</v>
       </c>
       <c r="F9">
-        <v>0.2647058823529412</v>
+        <v>0.2571428571428571</v>
       </c>
       <c r="G9">
-        <v>0.1470588235294118</v>
+        <v>0.3714285714285714</v>
       </c>
       <c r="H9">
-        <v>0.2647058823529412</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -4794,25 +5156,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.2121212121212121</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="C10">
-        <v>0.3636363636363636</v>
+        <v>0.5</v>
       </c>
       <c r="D10">
-        <v>0.2121212121212121</v>
+        <v>0.3235294117647059</v>
       </c>
       <c r="E10">
-        <v>0.2727272727272727</v>
+        <v>0.2647058823529412</v>
       </c>
       <c r="F10">
-        <v>0.2121212121212121</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="G10">
-        <v>0.1818181818181818</v>
+        <v>0.2647058823529412</v>
       </c>
       <c r="H10">
-        <v>0.2727272727272727</v>
+        <v>0.2058823529411765</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -4820,617 +5182,51 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4</v>
+        <v>0.46875</v>
       </c>
       <c r="C11">
-        <v>0.2333333333333333</v>
+        <v>0.375</v>
       </c>
       <c r="D11">
-        <v>0.3</v>
+        <v>0.5625</v>
       </c>
       <c r="E11">
-        <v>0.2666666666666667</v>
+        <v>0.4375</v>
       </c>
       <c r="F11">
-        <v>0.3</v>
+        <v>0.28125</v>
       </c>
       <c r="G11">
-        <v>0.2</v>
+        <v>0.4375</v>
       </c>
       <c r="H11">
-        <v>0.2666666666666667</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="C2">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="D2">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="E2">
-        <v>0.2777777777777778</v>
-      </c>
-      <c r="F2">
-        <v>0.3055555555555556</v>
-      </c>
-      <c r="G2">
-        <v>0.25</v>
-      </c>
-      <c r="H2">
-        <v>0.3055555555555556</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>0.2777777777777778</v>
-      </c>
-      <c r="C3">
-        <v>0.3055555555555556</v>
-      </c>
-      <c r="D3">
-        <v>0.2777777777777778</v>
-      </c>
-      <c r="E3">
-        <v>0.2777777777777778</v>
-      </c>
-      <c r="F3">
-        <v>0.3611111111111111</v>
-      </c>
-      <c r="G3">
-        <v>0.2777777777777778</v>
-      </c>
-      <c r="H3">
-        <v>0.4166666666666667</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>0.3235294117647059</v>
-      </c>
-      <c r="C4">
-        <v>0.2352941176470588</v>
-      </c>
-      <c r="D4">
-        <v>0.1764705882352941</v>
-      </c>
-      <c r="E4">
-        <v>0.2941176470588235</v>
-      </c>
-      <c r="F4">
-        <v>0.2058823529411765</v>
-      </c>
-      <c r="G4">
-        <v>0.2058823529411765</v>
-      </c>
-      <c r="H4">
-        <v>0.2647058823529412</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>0.28125</v>
-      </c>
-      <c r="C5">
-        <v>0.21875</v>
-      </c>
-      <c r="D5">
-        <v>0.125</v>
-      </c>
-      <c r="E5">
-        <v>0.3125</v>
-      </c>
-      <c r="F5">
-        <v>0.3125</v>
-      </c>
-      <c r="G5">
-        <v>0.21875</v>
-      </c>
-      <c r="H5">
-        <v>0.28125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>0.2903225806451613</v>
-      </c>
-      <c r="C6">
-        <v>0.2903225806451613</v>
-      </c>
-      <c r="D6">
-        <v>0.1935483870967742</v>
-      </c>
-      <c r="E6">
-        <v>0.3225806451612903</v>
-      </c>
-      <c r="F6">
-        <v>0.2903225806451613</v>
-      </c>
-      <c r="G6">
-        <v>0.2258064516129032</v>
-      </c>
-      <c r="H6">
-        <v>0.3548387096774194</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>0.4137931034482759</v>
-      </c>
-      <c r="C7">
-        <v>0.3448275862068966</v>
-      </c>
-      <c r="D7">
-        <v>0.3448275862068966</v>
-      </c>
-      <c r="E7">
-        <v>0.3448275862068966</v>
-      </c>
-      <c r="F7">
-        <v>0.3793103448275862</v>
-      </c>
-      <c r="G7">
-        <v>0.2413793103448276</v>
-      </c>
-      <c r="H7">
-        <v>0.3793103448275862</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>0.3103448275862069</v>
-      </c>
-      <c r="C8">
-        <v>0.3103448275862069</v>
-      </c>
-      <c r="D8">
-        <v>0.103448275862069</v>
-      </c>
-      <c r="E8">
-        <v>0.3103448275862069</v>
-      </c>
-      <c r="F8">
-        <v>0.3448275862068966</v>
-      </c>
-      <c r="G8">
-        <v>0.2068965517241379</v>
-      </c>
-      <c r="H8">
-        <v>0.3103448275862069</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>0.3103448275862069</v>
-      </c>
-      <c r="C9">
-        <v>0.3103448275862069</v>
-      </c>
-      <c r="D9">
-        <v>0.103448275862069</v>
-      </c>
-      <c r="E9">
-        <v>0.3103448275862069</v>
-      </c>
-      <c r="F9">
-        <v>0.2413793103448276</v>
-      </c>
-      <c r="G9">
-        <v>0.2413793103448276</v>
-      </c>
-      <c r="H9">
-        <v>0.2758620689655172</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>0.3928571428571428</v>
-      </c>
-      <c r="C10">
-        <v>0.3214285714285715</v>
-      </c>
-      <c r="D10">
-        <v>0.1071428571428571</v>
-      </c>
-      <c r="E10">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="F10">
-        <v>0.3214285714285715</v>
-      </c>
-      <c r="G10">
-        <v>0.25</v>
-      </c>
-      <c r="H10">
-        <v>0.1785714285714286</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="C11">
-        <v>0.2962962962962963</v>
-      </c>
-      <c r="D11">
-        <v>0.2222222222222222</v>
-      </c>
-      <c r="E11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="F11">
-        <v>0.2222222222222222</v>
-      </c>
-      <c r="G11">
-        <v>0.2222222222222222</v>
-      </c>
-      <c r="H11">
-        <v>0.2592592592592592</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.275</v>
-      </c>
-      <c r="C2">
-        <v>0.175</v>
-      </c>
-      <c r="D2">
-        <v>0.275</v>
-      </c>
-      <c r="E2">
-        <v>0.225</v>
-      </c>
-      <c r="F2">
-        <v>0.275</v>
-      </c>
-      <c r="G2">
-        <v>0.175</v>
-      </c>
-      <c r="H2">
-        <v>0.275</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>0.425</v>
-      </c>
-      <c r="C3">
-        <v>0.25</v>
-      </c>
-      <c r="D3">
-        <v>0.25</v>
-      </c>
-      <c r="E3">
-        <v>0.325</v>
-      </c>
-      <c r="F3">
-        <v>0.3</v>
-      </c>
-      <c r="G3">
-        <v>0.175</v>
-      </c>
-      <c r="H3">
-        <v>0.325</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>0.358974358974359</v>
-      </c>
-      <c r="C4">
-        <v>0.2051282051282051</v>
-      </c>
-      <c r="D4">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="E4">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="F4">
-        <v>0.3076923076923077</v>
-      </c>
-      <c r="G4">
-        <v>0.1794871794871795</v>
-      </c>
-      <c r="H4">
-        <v>0.282051282051282</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>0.4210526315789473</v>
-      </c>
-      <c r="C5">
-        <v>0.1842105263157895</v>
-      </c>
-      <c r="D5">
-        <v>0.3421052631578947</v>
-      </c>
-      <c r="E5">
-        <v>0.4736842105263158</v>
-      </c>
-      <c r="F5">
-        <v>0.3157894736842105</v>
-      </c>
-      <c r="G5">
-        <v>0.1842105263157895</v>
-      </c>
-      <c r="H5">
-        <v>0.2631578947368421</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>0.3684210526315789</v>
-      </c>
-      <c r="C6">
-        <v>0.2368421052631579</v>
-      </c>
-      <c r="D6">
-        <v>0.2631578947368421</v>
-      </c>
-      <c r="E6">
-        <v>0.4473684210526316</v>
-      </c>
-      <c r="F6">
-        <v>0.3157894736842105</v>
-      </c>
-      <c r="G6">
-        <v>0.1842105263157895</v>
-      </c>
-      <c r="H6">
-        <v>0.3947368421052632</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>0.4324324324324325</v>
-      </c>
-      <c r="C7">
-        <v>0.1891891891891892</v>
-      </c>
-      <c r="D7">
-        <v>0.3513513513513514</v>
-      </c>
-      <c r="E7">
-        <v>0.2972972972972973</v>
-      </c>
-      <c r="F7">
-        <v>0.3243243243243243</v>
-      </c>
-      <c r="G7">
-        <v>0.1891891891891892</v>
-      </c>
-      <c r="H7">
-        <v>0.3783783783783784</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>0.4166666666666667</v>
-      </c>
-      <c r="C8">
-        <v>0.1666666666666667</v>
-      </c>
-      <c r="D8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="E8">
-        <v>0.2222222222222222</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.1944444444444444</v>
-      </c>
-      <c r="H8">
-        <v>0.3611111111111111</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>0.3714285714285714</v>
-      </c>
-      <c r="C9">
-        <v>0.2571428571428571</v>
-      </c>
-      <c r="D9">
-        <v>0.3428571428571429</v>
-      </c>
-      <c r="E9">
-        <v>0.2571428571428571</v>
-      </c>
-      <c r="F9">
-        <v>0.2571428571428571</v>
-      </c>
-      <c r="G9">
-        <v>0.1714285714285714</v>
-      </c>
-      <c r="H9">
-        <v>0.3142857142857143</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>0.3235294117647059</v>
-      </c>
-      <c r="C10">
-        <v>0.2647058823529412</v>
-      </c>
-      <c r="D10">
-        <v>0.2647058823529412</v>
-      </c>
-      <c r="E10">
-        <v>0.1764705882352941</v>
-      </c>
-      <c r="F10">
-        <v>0.2941176470588235</v>
-      </c>
-      <c r="G10">
-        <v>0.1764705882352941</v>
-      </c>
-      <c r="H10">
-        <v>0.2058823529411765</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>0.5625</v>
-      </c>
-      <c r="C11">
-        <v>0.34375</v>
-      </c>
-      <c r="D11">
         <v>0.4375</v>
       </c>
-      <c r="E11">
-        <v>0.28125</v>
-      </c>
-      <c r="F11">
-        <v>0.3125</v>
-      </c>
-      <c r="G11">
-        <v>0.1875</v>
-      </c>
-      <c r="H11">
-        <v>0.3125</v>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.3674739539193873</v>
+      </c>
+      <c r="C12">
+        <v>0.3430763021552495</v>
+      </c>
+      <c r="D12">
+        <v>0.3955005125477262</v>
+      </c>
+      <c r="E12">
+        <v>0.3193344201122839</v>
+      </c>
+      <c r="F12">
+        <v>0.3038768929809951</v>
+      </c>
+      <c r="G12">
+        <v>0.3404858086320935</v>
+      </c>
+      <c r="H12">
+        <v>0.3134667999489981</v>
       </c>
     </row>
   </sheetData>

--- a/python_module/PosFeature/grade_models_score.xlsx
+++ b/python_module/PosFeature/grade_models_score.xlsx
@@ -455,10 +455,10 @@
         <v>0.225</v>
       </c>
       <c r="G2">
+        <v>0.325</v>
+      </c>
+      <c r="H2">
         <v>0.25</v>
-      </c>
-      <c r="H2">
-        <v>0.175</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -481,10 +481,10 @@
         <v>0.35</v>
       </c>
       <c r="G3">
-        <v>0.375</v>
+        <v>0.3</v>
       </c>
       <c r="H3">
-        <v>0.375</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -533,10 +533,10 @@
         <v>0.4736842105263158</v>
       </c>
       <c r="G5">
+        <v>0.2894736842105263</v>
+      </c>
+      <c r="H5">
         <v>0.3157894736842105</v>
-      </c>
-      <c r="H5">
-        <v>0.3684210526315789</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -559,10 +559,10 @@
         <v>0.3684210526315789</v>
       </c>
       <c r="G6">
-        <v>0.3157894736842105</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="H6">
-        <v>0.2368421052631579</v>
+        <v>0.2894736842105263</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -585,7 +585,7 @@
         <v>0.3243243243243243</v>
       </c>
       <c r="G7">
-        <v>0.4054054054054054</v>
+        <v>0.3783783783783784</v>
       </c>
       <c r="H7">
         <v>0.4054054054054054</v>
@@ -611,10 +611,10 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="G8">
-        <v>0.3055555555555556</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="H8">
-        <v>0.3055555555555556</v>
+        <v>0.2777777777777778</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -637,10 +637,10 @@
         <v>0.2</v>
       </c>
       <c r="G9">
-        <v>0.2571428571428571</v>
+        <v>0.2</v>
       </c>
       <c r="H9">
-        <v>0.2</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -666,7 +666,7 @@
         <v>0.2647058823529412</v>
       </c>
       <c r="H10">
-        <v>0.2058823529411765</v>
+        <v>0.2647058823529412</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -689,10 +689,10 @@
         <v>0.28125</v>
       </c>
       <c r="G11">
-        <v>0.53125</v>
+        <v>0.34375</v>
       </c>
       <c r="H11">
-        <v>0.34375</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -715,10 +715,10 @@
         <v>0.3009255756411329</v>
       </c>
       <c r="G12">
-        <v>0.3225766852953386</v>
+        <v>0.3063746091590519</v>
       </c>
       <c r="H12">
-        <v>0.2744061600002002</v>
+        <v>0.2942071637350275</v>
       </c>
     </row>
   </sheetData>
@@ -777,7 +777,7 @@
         <v>0.2162162162162162</v>
       </c>
       <c r="G2">
-        <v>0.2162162162162162</v>
+        <v>0.1891891891891892</v>
       </c>
       <c r="H2">
         <v>0.2432432432432433</v>
@@ -803,10 +803,10 @@
         <v>0.3243243243243243</v>
       </c>
       <c r="G3">
-        <v>0.4054054054054054</v>
+        <v>0.3513513513513514</v>
       </c>
       <c r="H3">
-        <v>0.2972972972972973</v>
+        <v>0.3513513513513514</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -829,10 +829,10 @@
         <v>0.2972972972972973</v>
       </c>
       <c r="G4">
-        <v>0.2972972972972973</v>
+        <v>0.1621621621621622</v>
       </c>
       <c r="H4">
-        <v>0.1081081081081081</v>
+        <v>0.1351351351351351</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -855,10 +855,10 @@
         <v>0.3142857142857143</v>
       </c>
       <c r="G5">
-        <v>0.2285714285714286</v>
+        <v>0.3142857142857143</v>
       </c>
       <c r="H5">
-        <v>0.2571428571428571</v>
+        <v>0.3428571428571429</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -881,7 +881,7 @@
         <v>0.2647058823529412</v>
       </c>
       <c r="G6">
-        <v>0.2647058823529412</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="H6">
         <v>0.2941176470588235</v>
@@ -907,10 +907,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.2424242424242424</v>
+        <v>0.303030303030303</v>
       </c>
       <c r="H7">
-        <v>0.3939393939393939</v>
+        <v>0.4242424242424243</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -936,7 +936,7 @@
         <v>0.34375</v>
       </c>
       <c r="H8">
-        <v>0.3125</v>
+        <v>0.28125</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -959,7 +959,7 @@
         <v>0.28125</v>
       </c>
       <c r="G9">
-        <v>0.21875</v>
+        <v>0.1875</v>
       </c>
       <c r="H9">
         <v>0.3125</v>
@@ -985,10 +985,10 @@
         <v>0.2258064516129032</v>
       </c>
       <c r="G10">
-        <v>0.3225806451612903</v>
+        <v>0.2903225806451613</v>
       </c>
       <c r="H10">
-        <v>0.2580645161290323</v>
+        <v>0.1935483870967742</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1011,10 +1011,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.3333333333333333</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="H11">
-        <v>0.3333333333333333</v>
+        <v>0.2592592592592592</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1037,10 +1037,10 @@
         <v>0.2871802552756063</v>
       </c>
       <c r="G12">
-        <v>0.2873034450762155</v>
+        <v>0.2790828773430766</v>
       </c>
       <c r="H12">
-        <v>0.2810246396252088</v>
+        <v>0.2837504590244154</v>
       </c>
     </row>
   </sheetData>
@@ -1099,7 +1099,7 @@
         <v>0.282051282051282</v>
       </c>
       <c r="G2">
-        <v>0.1538461538461539</v>
+        <v>0.1794871794871795</v>
       </c>
       <c r="H2">
         <v>0.1794871794871795</v>
@@ -1125,10 +1125,10 @@
         <v>0.3076923076923077</v>
       </c>
       <c r="G3">
-        <v>0.3333333333333333</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="H3">
-        <v>0.3846153846153846</v>
+        <v>0.358974358974359</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1151,10 +1151,10 @@
         <v>0.3846153846153846</v>
       </c>
       <c r="G4">
-        <v>0.2307692307692308</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="H4">
-        <v>0.3333333333333333</v>
+        <v>0.3076923076923077</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1177,10 +1177,10 @@
         <v>0.3421052631578947</v>
       </c>
       <c r="G5">
-        <v>0.1842105263157895</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="H5">
-        <v>0.1842105263157895</v>
+        <v>0.1578947368421053</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1203,7 +1203,7 @@
         <v>0.2702702702702703</v>
       </c>
       <c r="G6">
-        <v>0.1081081081081081</v>
+        <v>0.2432432432432433</v>
       </c>
       <c r="H6">
         <v>0.1351351351351351</v>
@@ -1232,7 +1232,7 @@
         <v>0.2222222222222222</v>
       </c>
       <c r="H7">
-        <v>0.2222222222222222</v>
+        <v>0.2777777777777778</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1255,7 +1255,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="G8">
-        <v>0.2571428571428571</v>
+        <v>0.3428571428571429</v>
       </c>
       <c r="H8">
         <v>0.2857142857142857</v>
@@ -1284,7 +1284,7 @@
         <v>0.3714285714285714</v>
       </c>
       <c r="H9">
-        <v>0.1714285714285714</v>
+        <v>0.2285714285714286</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1307,10 +1307,10 @@
         <v>0.28125</v>
       </c>
       <c r="G10">
+        <v>0.15625</v>
+      </c>
+      <c r="H10">
         <v>0.3125</v>
-      </c>
-      <c r="H10">
-        <v>0.34375</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1333,7 +1333,7 @@
         <v>0.3793103448275862</v>
       </c>
       <c r="G11">
-        <v>0.1379310344827586</v>
+        <v>0.2413793103448276</v>
       </c>
       <c r="H11">
         <v>0.3448275862068966</v>
@@ -1359,10 +1359,10 @@
         <v>0.3236183741503614</v>
       </c>
       <c r="G12">
-        <v>0.2311492037649025</v>
+        <v>0.2735275226938113</v>
       </c>
       <c r="H12">
-        <v>0.2584724224458798</v>
+        <v>0.2588574796401475</v>
       </c>
     </row>
   </sheetData>
@@ -1421,10 +1421,10 @@
         <v>0.2</v>
       </c>
       <c r="G2">
-        <v>0.325</v>
+        <v>0.275</v>
       </c>
       <c r="H2">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1447,10 +1447,10 @@
         <v>0.275</v>
       </c>
       <c r="G3">
-        <v>0.275</v>
+        <v>0.325</v>
       </c>
       <c r="H3">
-        <v>0.325</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1473,7 +1473,7 @@
         <v>0.3076923076923077</v>
       </c>
       <c r="G4">
-        <v>0.282051282051282</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="H4">
         <v>0.2307692307692308</v>
@@ -1499,10 +1499,10 @@
         <v>0.3947368421052632</v>
       </c>
       <c r="G5">
-        <v>0.1842105263157895</v>
+        <v>0.3947368421052632</v>
       </c>
       <c r="H5">
-        <v>0.1842105263157895</v>
+        <v>0.1578947368421053</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1525,10 +1525,10 @@
         <v>0.3684210526315789</v>
       </c>
       <c r="G6">
-        <v>0.3684210526315789</v>
+        <v>0.3421052631578947</v>
       </c>
       <c r="H6">
-        <v>0.2894736842105263</v>
+        <v>0.2368421052631579</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1551,10 +1551,10 @@
         <v>0.4324324324324325</v>
       </c>
       <c r="G7">
-        <v>0.4054054054054054</v>
+        <v>0.3243243243243243</v>
       </c>
       <c r="H7">
-        <v>0.2432432432432433</v>
+        <v>0.2162162162162162</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1577,7 +1577,7 @@
         <v>0.3428571428571429</v>
       </c>
       <c r="G8">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H8">
         <v>0.2285714285714286</v>
@@ -1606,7 +1606,7 @@
         <v>0.4571428571428571</v>
       </c>
       <c r="H9">
-        <v>0.3714285714285714</v>
+        <v>0.3428571428571429</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1629,10 +1629,10 @@
         <v>0.2647058823529412</v>
       </c>
       <c r="G10">
-        <v>0.2941176470588235</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="H10">
-        <v>0.2058823529411765</v>
+        <v>0.2647058823529412</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1655,10 +1655,10 @@
         <v>0.4193548387096774</v>
       </c>
       <c r="G11">
-        <v>0.3870967741935484</v>
+        <v>0.1612903225806452</v>
       </c>
       <c r="H11">
-        <v>0.2903225806451613</v>
+        <v>0.3225806451612903</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1681,10 +1681,10 @@
         <v>0.3348057641638487</v>
       </c>
       <c r="G12">
-        <v>0.3407016973370714</v>
+        <v>0.303137724344156</v>
       </c>
       <c r="H12">
-        <v>0.2718901618125128</v>
+        <v>0.2675437388033513</v>
       </c>
     </row>
   </sheetData>
@@ -1743,7 +1743,7 @@
         <v>0.275</v>
       </c>
       <c r="G2">
-        <v>0.25</v>
+        <v>0.275</v>
       </c>
       <c r="H2">
         <v>0.325</v>
@@ -1769,7 +1769,7 @@
         <v>0.325</v>
       </c>
       <c r="G3">
-        <v>0.275</v>
+        <v>0.2</v>
       </c>
       <c r="H3">
         <v>0.175</v>
@@ -1795,7 +1795,7 @@
         <v>0.3157894736842105</v>
       </c>
       <c r="G4">
-        <v>0.2894736842105263</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="H4">
         <v>0.1842105263157895</v>
@@ -1821,10 +1821,10 @@
         <v>0.4324324324324325</v>
       </c>
       <c r="G5">
-        <v>0.2432432432432433</v>
+        <v>0.3513513513513514</v>
       </c>
       <c r="H5">
-        <v>0.2702702702702703</v>
+        <v>0.2972972972972973</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1847,7 +1847,7 @@
         <v>0.2702702702702703</v>
       </c>
       <c r="G6">
-        <v>0.2162162162162162</v>
+        <v>0.2432432432432433</v>
       </c>
       <c r="H6">
         <v>0.1351351351351351</v>
@@ -1873,10 +1873,10 @@
         <v>0.4</v>
       </c>
       <c r="G7">
-        <v>0.2571428571428571</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H7">
-        <v>0.2571428571428571</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1899,10 +1899,10 @@
         <v>0.2</v>
       </c>
       <c r="G8">
-        <v>0.3142857142857143</v>
+        <v>0.2</v>
       </c>
       <c r="H8">
-        <v>0.2285714285714286</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1928,7 +1928,7 @@
         <v>0.3428571428571429</v>
       </c>
       <c r="H9">
-        <v>0.3142857142857143</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1951,10 +1951,10 @@
         <v>0.2058823529411765</v>
       </c>
       <c r="G10">
-        <v>0.2352941176470588</v>
+        <v>0.2058823529411765</v>
       </c>
       <c r="H10">
-        <v>0.2058823529411765</v>
+        <v>0.1764705882352941</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1980,7 +1980,7 @@
         <v>0.21875</v>
       </c>
       <c r="H11">
-        <v>0.28125</v>
+        <v>0.34375</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2003,10 +2003,10 @@
         <v>0.3113660243613804</v>
       </c>
       <c r="G12">
-        <v>0.2642262975602759</v>
+        <v>0.2781444992648553</v>
       </c>
       <c r="H12">
-        <v>0.2376748284662372</v>
+        <v>0.2436863546983516</v>
       </c>
     </row>
   </sheetData>
@@ -2065,10 +2065,10 @@
         <v>0.3235294117647059</v>
       </c>
       <c r="G2">
-        <v>0.1470588235294118</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="H2">
-        <v>0.2058823529411765</v>
+        <v>0.2352941176470588</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2091,7 +2091,7 @@
         <v>0.3125</v>
       </c>
       <c r="G3">
-        <v>0.375</v>
+        <v>0.25</v>
       </c>
       <c r="H3">
         <v>0.28125</v>
@@ -2117,7 +2117,7 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="G4">
-        <v>0.3</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="H4">
         <v>0.2666666666666667</v>
@@ -2143,7 +2143,7 @@
         <v>0.3</v>
       </c>
       <c r="G5">
-        <v>0.2333333333333333</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="H5">
         <v>0.2</v>
@@ -2169,10 +2169,10 @@
         <v>0.3214285714285715</v>
       </c>
       <c r="G6">
-        <v>0.3214285714285715</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="H6">
-        <v>0.4285714285714285</v>
+        <v>0.4642857142857143</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2198,7 +2198,7 @@
         <v>0.3846153846153846</v>
       </c>
       <c r="H7">
-        <v>0.3461538461538461</v>
+        <v>0.3846153846153846</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2221,10 +2221,10 @@
         <v>0.3461538461538461</v>
       </c>
       <c r="G8">
-        <v>0.3076923076923077</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="H8">
-        <v>0.2692307692307692</v>
+        <v>0.2307692307692308</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2247,10 +2247,10 @@
         <v>0.28</v>
       </c>
       <c r="G9">
-        <v>0.28</v>
+        <v>0.32</v>
       </c>
       <c r="H9">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2276,7 +2276,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="H10">
-        <v>0.375</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2299,10 +2299,10 @@
         <v>0.2608695652173913</v>
       </c>
       <c r="G11">
-        <v>0.2608695652173913</v>
+        <v>0.2173913043478261</v>
       </c>
       <c r="H11">
-        <v>0.3478260869565217</v>
+        <v>0.391304347826087</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2325,10 +2325,10 @@
         <v>0.2965635240718361</v>
       </c>
       <c r="G12">
-        <v>0.2776664652483067</v>
+        <v>0.2561847240568468</v>
       </c>
       <c r="H12">
-        <v>0.2920581150520409</v>
+        <v>0.2985852128476809</v>
       </c>
     </row>
   </sheetData>
@@ -2387,10 +2387,10 @@
         <v>0.2</v>
       </c>
       <c r="G2">
+        <v>0.3</v>
+      </c>
+      <c r="H2">
         <v>0.1666666666666667</v>
-      </c>
-      <c r="H2">
-        <v>0.2333333333333333</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2413,10 +2413,10 @@
         <v>0.2</v>
       </c>
       <c r="G3">
-        <v>0.3</v>
+        <v>0.2333333333333333</v>
       </c>
       <c r="H3">
-        <v>0.3</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2439,10 +2439,10 @@
         <v>0.2142857142857143</v>
       </c>
       <c r="G4">
-        <v>0.25</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="H4">
-        <v>0.1428571428571428</v>
+        <v>0.1785714285714286</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2465,7 +2465,7 @@
         <v>0.1785714285714286</v>
       </c>
       <c r="G5">
-        <v>0.1428571428571428</v>
+        <v>0.25</v>
       </c>
       <c r="H5">
         <v>0.2142857142857143</v>
@@ -2491,10 +2491,10 @@
         <v>0.28</v>
       </c>
       <c r="G6">
+        <v>0.2</v>
+      </c>
+      <c r="H6">
         <v>0.32</v>
-      </c>
-      <c r="H6">
-        <v>0.28</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2517,7 +2517,7 @@
         <v>0.2916666666666667</v>
       </c>
       <c r="G7">
-        <v>0.375</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H7">
         <v>0.2916666666666667</v>
@@ -2543,7 +2543,7 @@
         <v>0.2916666666666667</v>
       </c>
       <c r="G8">
-        <v>0.2083333333333333</v>
+        <v>0.2916666666666667</v>
       </c>
       <c r="H8">
         <v>0.25</v>
@@ -2572,7 +2572,7 @@
         <v>0.1739130434782609</v>
       </c>
       <c r="H9">
-        <v>0.2173913043478261</v>
+        <v>0.2608695652173913</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2595,7 +2595,7 @@
         <v>0.1818181818181818</v>
       </c>
       <c r="G10">
-        <v>0.1363636363636364</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="H10">
         <v>0.09090909090909091</v>
@@ -2621,7 +2621,7 @@
         <v>0.1904761904761905</v>
       </c>
       <c r="G11">
-        <v>0.3333333333333333</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="H11">
         <v>0.1904761904761905</v>
@@ -2647,10 +2647,10 @@
         <v>0.2202397891963109</v>
       </c>
       <c r="G12">
-        <v>0.2406467156032374</v>
+        <v>0.2507354601919819</v>
       </c>
       <c r="H12">
-        <v>0.2210919442875965</v>
+        <v>0.2296778656126482</v>
       </c>
     </row>
   </sheetData>
@@ -2709,10 +2709,10 @@
         <v>0.2</v>
       </c>
       <c r="G2">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="H2">
-        <v>0.325</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2735,10 +2735,10 @@
         <v>0.325</v>
       </c>
       <c r="G3">
-        <v>0.45</v>
+        <v>0.475</v>
       </c>
       <c r="H3">
-        <v>0.275</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2764,7 +2764,7 @@
         <v>0.2307692307692308</v>
       </c>
       <c r="H4">
-        <v>0.1282051282051282</v>
+        <v>0.2051282051282051</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2787,7 +2787,7 @@
         <v>0.5526315789473685</v>
       </c>
       <c r="G5">
-        <v>0.1842105263157895</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="H5">
         <v>0.3421052631578947</v>
@@ -2813,10 +2813,10 @@
         <v>0.3684210526315789</v>
       </c>
       <c r="G6">
-        <v>0.4736842105263158</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="H6">
-        <v>0.3157894736842105</v>
+        <v>0.3421052631578947</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2839,10 +2839,10 @@
         <v>0.3513513513513514</v>
       </c>
       <c r="G7">
-        <v>0.3513513513513514</v>
+        <v>0.3783783783783784</v>
       </c>
       <c r="H7">
-        <v>0.4054054054054054</v>
+        <v>0.3783783783783784</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2865,10 +2865,10 @@
         <v>0.2777777777777778</v>
       </c>
       <c r="G8">
-        <v>0.3888888888888889</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="H8">
-        <v>0.3888888888888889</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2917,10 +2917,10 @@
         <v>0.2941176470588235</v>
       </c>
       <c r="G10">
-        <v>0.4411764705882353</v>
+        <v>0.3823529411764706</v>
       </c>
       <c r="H10">
-        <v>0.2058823529411765</v>
+        <v>0.1764705882352941</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2943,10 +2943,10 @@
         <v>0.34375</v>
       </c>
       <c r="G11">
-        <v>0.46875</v>
+        <v>0.28125</v>
       </c>
       <c r="H11">
-        <v>0.34375</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2969,10 +2969,10 @@
         <v>0.338337907809657</v>
       </c>
       <c r="G12">
-        <v>0.3731687821296955</v>
+        <v>0.331399950604672</v>
       </c>
       <c r="H12">
-        <v>0.2901455083711276</v>
+        <v>0.2886449602819572</v>
       </c>
     </row>
   </sheetData>
@@ -3031,7 +3031,7 @@
         <v>0.3421052631578947</v>
       </c>
       <c r="G2">
-        <v>0.4210526315789473</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="H2">
         <v>0.2631578947368421</v>
@@ -3057,10 +3057,10 @@
         <v>0.2631578947368421</v>
       </c>
       <c r="G3">
-        <v>0.2368421052631579</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="H3">
-        <v>0.2894736842105263</v>
+        <v>0.3157894736842105</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3086,7 +3086,7 @@
         <v>0.1578947368421053</v>
       </c>
       <c r="H4">
-        <v>0.2631578947368421</v>
+        <v>0.2105263157894737</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3109,10 +3109,10 @@
         <v>0.3714285714285714</v>
       </c>
       <c r="G5">
-        <v>0.2857142857142857</v>
+        <v>0.3714285714285714</v>
       </c>
       <c r="H5">
-        <v>0.2285714285714286</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3135,10 +3135,10 @@
         <v>0.3428571428571429</v>
       </c>
       <c r="G6">
-        <v>0.4</v>
+        <v>0.3142857142857143</v>
       </c>
       <c r="H6">
-        <v>0.2285714285714286</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3187,7 +3187,7 @@
         <v>0.28125</v>
       </c>
       <c r="G8">
-        <v>0.1875</v>
+        <v>0.28125</v>
       </c>
       <c r="H8">
         <v>0.25</v>
@@ -3213,10 +3213,10 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="G9">
-        <v>0.3</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H9">
-        <v>0.3</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3239,10 +3239,10 @@
         <v>0.3448275862068966</v>
       </c>
       <c r="G10">
-        <v>0.4137931034482759</v>
+        <v>0.3103448275862069</v>
       </c>
       <c r="H10">
-        <v>0.3793103448275862</v>
+        <v>0.3448275862068966</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3268,7 +3268,7 @@
         <v>0.2222222222222222</v>
       </c>
       <c r="H11">
-        <v>0.1851851851851852</v>
+        <v>0.2222222222222222</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -3291,10 +3291,10 @@
         <v>0.292303209368772</v>
       </c>
       <c r="G12">
-        <v>0.2897746357796267</v>
+        <v>0.278980246789911</v>
       </c>
       <c r="H12">
-        <v>0.2751064224476202</v>
+        <v>0.2636826522942676</v>
       </c>
     </row>
   </sheetData>
@@ -3353,10 +3353,10 @@
         <v>0.2</v>
       </c>
       <c r="G2">
-        <v>0.3</v>
+        <v>0.275</v>
       </c>
       <c r="H2">
-        <v>0.175</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3379,7 +3379,7 @@
         <v>0.3</v>
       </c>
       <c r="G3">
-        <v>0.4</v>
+        <v>0.275</v>
       </c>
       <c r="H3">
         <v>0.3</v>
@@ -3405,10 +3405,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.4102564102564102</v>
+        <v>0.282051282051282</v>
       </c>
       <c r="H4">
-        <v>0.3076923076923077</v>
+        <v>0.282051282051282</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3457,10 +3457,10 @@
         <v>0.3947368421052632</v>
       </c>
       <c r="G6">
-        <v>0.3947368421052632</v>
+        <v>0.3421052631578947</v>
       </c>
       <c r="H6">
-        <v>0.2368421052631579</v>
+        <v>0.2631578947368421</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3483,10 +3483,10 @@
         <v>0.2972972972972973</v>
       </c>
       <c r="G7">
-        <v>0.3783783783783784</v>
+        <v>0.4054054054054054</v>
       </c>
       <c r="H7">
-        <v>0.2702702702702703</v>
+        <v>0.3513513513513514</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3509,10 +3509,10 @@
         <v>0.2777777777777778</v>
       </c>
       <c r="G8">
-        <v>0.3611111111111111</v>
+        <v>0.3055555555555556</v>
       </c>
       <c r="H8">
-        <v>0.3055555555555556</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3535,10 +3535,10 @@
         <v>0.4</v>
       </c>
       <c r="G9">
-        <v>0.3428571428571429</v>
+        <v>0.2285714285714286</v>
       </c>
       <c r="H9">
-        <v>0.2</v>
+        <v>0.2571428571428571</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3561,7 +3561,7 @@
         <v>0.2352941176470588</v>
       </c>
       <c r="G10">
-        <v>0.1764705882352941</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="H10">
         <v>0.2647058823529412</v>
@@ -3587,10 +3587,10 @@
         <v>0.375</v>
       </c>
       <c r="G11">
-        <v>0.34375</v>
+        <v>0.21875</v>
       </c>
       <c r="H11">
-        <v>0.34375</v>
+        <v>0.28125</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -3613,10 +3613,10 @@
         <v>0.331343936816073</v>
       </c>
       <c r="G12">
-        <v>0.3370718367680442</v>
+        <v>0.2830890947125467</v>
       </c>
       <c r="H12">
-        <v>0.2772237173765811</v>
+        <v>0.2818080320266853</v>
       </c>
     </row>
   </sheetData>
@@ -3675,10 +3675,10 @@
         <v>0.275</v>
       </c>
       <c r="G2">
-        <v>0.275</v>
+        <v>0.375</v>
       </c>
       <c r="H2">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3704,7 +3704,7 @@
         <v>0.3</v>
       </c>
       <c r="H3">
-        <v>0.225</v>
+        <v>0.275</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3727,7 +3727,7 @@
         <v>0.3846153846153846</v>
       </c>
       <c r="G4">
-        <v>0.2051282051282051</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="H4">
         <v>0.282051282051282</v>
@@ -3753,7 +3753,7 @@
         <v>0.4736842105263158</v>
       </c>
       <c r="G5">
-        <v>0.4210526315789473</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="H5">
         <v>0.2631578947368421</v>
@@ -3779,10 +3779,10 @@
         <v>0.4473684210526316</v>
       </c>
       <c r="G6">
-        <v>0.3947368421052632</v>
+        <v>0.2894736842105263</v>
       </c>
       <c r="H6">
-        <v>0.2368421052631579</v>
+        <v>0.2631578947368421</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3805,10 +3805,10 @@
         <v>0.3783783783783784</v>
       </c>
       <c r="G7">
+        <v>0.4054054054054054</v>
+      </c>
+      <c r="H7">
         <v>0.3783783783783784</v>
-      </c>
-      <c r="H7">
-        <v>0.4054054054054054</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3831,7 +3831,7 @@
         <v>0.3055555555555556</v>
       </c>
       <c r="G8">
-        <v>0.2777777777777778</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="H8">
         <v>0.1944444444444444</v>
@@ -3857,7 +3857,7 @@
         <v>0.3428571428571429</v>
       </c>
       <c r="G9">
-        <v>0.2285714285714286</v>
+        <v>0.3142857142857143</v>
       </c>
       <c r="H9">
         <v>0.2571428571428571</v>
@@ -3883,7 +3883,7 @@
         <v>0.2352941176470588</v>
       </c>
       <c r="G10">
-        <v>0.3235294117647059</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="H10">
         <v>0.2352941176470588</v>
@@ -3909,10 +3909,10 @@
         <v>0.21875</v>
       </c>
       <c r="G11">
-        <v>0.46875</v>
+        <v>0.40625</v>
       </c>
       <c r="H11">
-        <v>0.46875</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -3935,10 +3935,10 @@
         <v>0.3361503210632467</v>
       </c>
       <c r="G12">
-        <v>0.3272924675304706</v>
+        <v>0.3038934292668813</v>
       </c>
       <c r="H12">
-        <v>0.2868088106691048</v>
+        <v>0.2898626869137705</v>
       </c>
     </row>
   </sheetData>
@@ -3997,10 +3997,10 @@
         <v>0.225</v>
       </c>
       <c r="G2">
-        <v>0.4</v>
+        <v>0.325</v>
       </c>
       <c r="H2">
-        <v>0.275</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -4023,7 +4023,7 @@
         <v>0.275</v>
       </c>
       <c r="G3">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="H3">
         <v>0.275</v>
@@ -4049,7 +4049,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.2307692307692308</v>
+        <v>0.2564102564102564</v>
       </c>
       <c r="H4">
         <v>0.2307692307692308</v>
@@ -4078,7 +4078,7 @@
         <v>0.2368421052631579</v>
       </c>
       <c r="H5">
-        <v>0.2894736842105263</v>
+        <v>0.3947368421052632</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -4127,10 +4127,10 @@
         <v>0.2972972972972973</v>
       </c>
       <c r="G7">
-        <v>0.3513513513513514</v>
+        <v>0.4054054054054054</v>
       </c>
       <c r="H7">
-        <v>0.4594594594594595</v>
+        <v>0.4324324324324325</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -4156,7 +4156,7 @@
         <v>0.3888888888888889</v>
       </c>
       <c r="H8">
-        <v>0.3611111111111111</v>
+        <v>0.3055555555555556</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -4179,10 +4179,10 @@
         <v>0.3428571428571429</v>
       </c>
       <c r="G9">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="H9">
-        <v>0.3142857142857143</v>
+        <v>0.3714285714285714</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -4205,10 +4205,10 @@
         <v>0.1764705882352941</v>
       </c>
       <c r="G10">
-        <v>0.3235294117647059</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="H10">
-        <v>0.3235294117647059</v>
+        <v>0.2941176470588235</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -4234,7 +4234,7 @@
         <v>0.5</v>
       </c>
       <c r="H11">
-        <v>0.53125</v>
+        <v>0.5625</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -4257,10 +4257,10 @@
         <v>0.3187604560553476</v>
       </c>
       <c r="G12">
-        <v>0.337348625119523</v>
+        <v>0.3539946036772662</v>
       </c>
       <c r="H12">
-        <v>0.3270404927390222</v>
+        <v>0.3277066595139351</v>
       </c>
     </row>
   </sheetData>
@@ -4322,7 +4322,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H2">
-        <v>0.2564102564102564</v>
+        <v>0.2307692307692308</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -4345,10 +4345,10 @@
         <v>0.358974358974359</v>
       </c>
       <c r="G3">
-        <v>0.3333333333333333</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="H3">
-        <v>0.3333333333333333</v>
+        <v>0.3076923076923077</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -4371,7 +4371,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H4">
         <v>0.2051282051282051</v>
@@ -4397,10 +4397,10 @@
         <v>0.4324324324324325</v>
       </c>
       <c r="G5">
-        <v>0.3783783783783784</v>
+        <v>0.4054054054054054</v>
       </c>
       <c r="H5">
-        <v>0.2702702702702703</v>
+        <v>0.3243243243243243</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -4423,7 +4423,7 @@
         <v>0.3243243243243243</v>
       </c>
       <c r="G6">
-        <v>0.3513513513513514</v>
+        <v>0.4324324324324325</v>
       </c>
       <c r="H6">
         <v>0.3783783783783784</v>
@@ -4449,10 +4449,10 @@
         <v>0.2777777777777778</v>
       </c>
       <c r="G7">
-        <v>0.3611111111111111</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H7">
-        <v>0.2777777777777778</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -4475,7 +4475,7 @@
         <v>0.2571428571428571</v>
       </c>
       <c r="G8">
-        <v>0.3428571428571429</v>
+        <v>0.3142857142857143</v>
       </c>
       <c r="H8">
         <v>0.2285714285714286</v>
@@ -4501,10 +4501,10 @@
         <v>0.3235294117647059</v>
       </c>
       <c r="G9">
-        <v>0.1470588235294118</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="H9">
-        <v>0.2058823529411765</v>
+        <v>0.1764705882352941</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -4527,10 +4527,10 @@
         <v>0.2727272727272727</v>
       </c>
       <c r="G10">
-        <v>0.2121212121212121</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="H10">
-        <v>0.2121212121212121</v>
+        <v>0.303030303030303</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -4553,10 +4553,10 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="G11">
+        <v>0.3</v>
+      </c>
+      <c r="H11">
         <v>0.3666666666666666</v>
-      </c>
-      <c r="H11">
-        <v>0.3</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -4579,10 +4579,10 @@
         <v>0.3205882794118088</v>
       </c>
       <c r="G12">
-        <v>0.3133903660374248</v>
+        <v>0.3106792412674765</v>
       </c>
       <c r="H12">
-        <v>0.2667873214932038</v>
+        <v>0.2854364766129472</v>
       </c>
     </row>
   </sheetData>
@@ -4641,7 +4641,7 @@
         <v>0.2777777777777778</v>
       </c>
       <c r="G2">
-        <v>0.3055555555555556</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="H2">
         <v>0.2777777777777778</v>
@@ -4667,10 +4667,10 @@
         <v>0.2777777777777778</v>
       </c>
       <c r="G3">
-        <v>0.2777777777777778</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="H3">
-        <v>0.3888888888888889</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -4693,10 +4693,10 @@
         <v>0.2941176470588235</v>
       </c>
       <c r="G4">
-        <v>0.2352941176470588</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="H4">
-        <v>0.2647058823529412</v>
+        <v>0.2058823529411765</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -4719,7 +4719,7 @@
         <v>0.3125</v>
       </c>
       <c r="G5">
-        <v>0.34375</v>
+        <v>0.28125</v>
       </c>
       <c r="H5">
         <v>0.375</v>
@@ -4745,10 +4745,10 @@
         <v>0.3225806451612903</v>
       </c>
       <c r="G6">
-        <v>0.2580645161290323</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="H6">
-        <v>0.3870967741935484</v>
+        <v>0.3225806451612903</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -4771,7 +4771,7 @@
         <v>0.3448275862068966</v>
       </c>
       <c r="G7">
-        <v>0.3103448275862069</v>
+        <v>0.3448275862068966</v>
       </c>
       <c r="H7">
         <v>0.3103448275862069</v>
@@ -4800,7 +4800,7 @@
         <v>0.3448275862068966</v>
       </c>
       <c r="H8">
-        <v>0.3448275862068966</v>
+        <v>0.3103448275862069</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -4823,10 +4823,10 @@
         <v>0.3103448275862069</v>
       </c>
       <c r="G9">
+        <v>0.2413793103448276</v>
+      </c>
+      <c r="H9">
         <v>0.3103448275862069</v>
-      </c>
-      <c r="H9">
-        <v>0.2758620689655172</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -4849,10 +4849,10 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="G10">
-        <v>0.25</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="H10">
-        <v>0.2857142857142857</v>
+        <v>0.2142857142857143</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -4875,7 +4875,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.2592592592592592</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="H11">
         <v>0.2222222222222222</v>
@@ -4901,10 +4901,10 @@
         <v>0.3069318708202599</v>
       </c>
       <c r="G12">
-        <v>0.2895218467747994</v>
+        <v>0.2934283318135065</v>
       </c>
       <c r="H12">
-        <v>0.3132440313908285</v>
+        <v>0.2965449861813468</v>
       </c>
     </row>
   </sheetData>
@@ -4963,7 +4963,7 @@
         <v>0.225</v>
       </c>
       <c r="G2">
-        <v>0.325</v>
+        <v>0.275</v>
       </c>
       <c r="H2">
         <v>0.2</v>
@@ -4989,10 +4989,10 @@
         <v>0.325</v>
       </c>
       <c r="G3">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="H3">
-        <v>0.25</v>
+        <v>0.275</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -5015,7 +5015,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.2307692307692308</v>
+        <v>0.2564102564102564</v>
       </c>
       <c r="H4">
         <v>0.3333333333333333</v>
@@ -5041,10 +5041,10 @@
         <v>0.4736842105263158</v>
       </c>
       <c r="G5">
-        <v>0.3421052631578947</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="H5">
-        <v>0.2894736842105263</v>
+        <v>0.2631578947368421</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -5067,10 +5067,10 @@
         <v>0.4473684210526316</v>
       </c>
       <c r="G6">
-        <v>0.2105263157894737</v>
+        <v>0.3421052631578947</v>
       </c>
       <c r="H6">
-        <v>0.4210526315789473</v>
+        <v>0.3421052631578947</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -5093,10 +5093,10 @@
         <v>0.2972972972972973</v>
       </c>
       <c r="G7">
-        <v>0.3783783783783784</v>
+        <v>0.3243243243243243</v>
       </c>
       <c r="H7">
-        <v>0.3783783783783784</v>
+        <v>0.3243243243243243</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -5119,10 +5119,10 @@
         <v>0.2222222222222222</v>
       </c>
       <c r="G8">
-        <v>0.4444444444444444</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="H8">
-        <v>0.3333333333333333</v>
+        <v>0.3611111111111111</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -5145,10 +5145,10 @@
         <v>0.2571428571428571</v>
       </c>
       <c r="G9">
-        <v>0.3714285714285714</v>
+        <v>0.4</v>
       </c>
       <c r="H9">
-        <v>0.2857142857142857</v>
+        <v>0.2571428571428571</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -5171,10 +5171,10 @@
         <v>0.1764705882352941</v>
       </c>
       <c r="G10">
-        <v>0.2647058823529412</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="H10">
-        <v>0.2058823529411765</v>
+        <v>0.1764705882352941</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -5197,10 +5197,10 @@
         <v>0.28125</v>
       </c>
       <c r="G11">
-        <v>0.4375</v>
+        <v>0.28125</v>
       </c>
       <c r="H11">
-        <v>0.4375</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -5223,10 +5223,10 @@
         <v>0.3038768929809951</v>
       </c>
       <c r="G12">
-        <v>0.3404858086320935</v>
+        <v>0.3105663631302176</v>
       </c>
       <c r="H12">
-        <v>0.3134667999489981</v>
+        <v>0.2845145372041656</v>
       </c>
     </row>
   </sheetData>
